--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\Protokoll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3CDDD-7F1B-43FF-BEAE-E613D632012E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD27FFC3-6185-4C6C-B2B6-FFCFF951F773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" tabRatio="844" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -587,14 +587,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1131,16 +1131,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1167,7 +1167,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1177,10 +1177,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1193,10 +1193,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1214,11 +1214,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1250,34 +1250,34 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1290,7 +1290,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1315,36 +1315,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,13 +1353,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,7 +1382,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
@@ -1428,35 +1428,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1469,16 +1469,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,19 +1487,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,18 +1508,171 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,330 +1682,178 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Dezimal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2663,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -2713,9 +2714,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2730,10 +2731,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2747,10 +2748,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2779,30 +2780,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,93 +2818,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="173"/>
-      <c r="I13" s="174" t="s">
+      <c r="G13" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="177"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="215"/>
-      <c r="E14" s="217" t="s">
+      <c r="D14" s="239"/>
+      <c r="E14" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="218"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186">
+      <c r="F14" s="241"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="185">
         <v>0.2</v>
       </c>
-      <c r="J14" s="189">
-        <v>0</v>
-      </c>
-      <c r="K14" s="191">
+      <c r="J14" s="188">
+        <v>0</v>
+      </c>
+      <c r="K14" s="190">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215" t="s">
+      <c r="A15" s="238"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="219" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="191"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="190"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="216" t="s">
+      <c r="A16" s="227"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="240"/>
+      <c r="E16" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="191"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="222"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="217" t="s">
+      <c r="C17" s="229"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="224"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2917,18 +2918,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="214"/>
-      <c r="B18" s="225" t="s">
+      <c r="A18" s="227"/>
+      <c r="B18" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="226"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="228" t="s">
+      <c r="C18" s="234"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="229"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2944,16 +2945,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="199" t="s">
+      <c r="B19" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="158"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3037,88 +3038,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="233" t="s">
+      <c r="A26" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="235"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="236"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="238"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="236"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="237"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="238"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="220"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="236"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="237"/>
-      <c r="G29" s="237"/>
-      <c r="H29" s="237"/>
-      <c r="I29" s="237"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="238"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="220"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="239"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="241"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="223"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="242" t="s">
+      <c r="A32" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="242"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="264">
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="262">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="264"/>
+      <c r="I32" s="262"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3128,20 +3129,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="242" t="s">
+      <c r="A33" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="243">
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="225">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="265"/>
+      <c r="I33" s="263"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3163,14 +3164,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="230" t="s">
+      <c r="E35" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="214"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3225,6 +3226,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3241,26 +3262,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -3338,8 +3339,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3354,9 +3355,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3378,83 +3379,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3484,11 +3485,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="204"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3501,11 +3502,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="198"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3518,11 +3519,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="198"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3535,11 +3536,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="207"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3552,11 +3553,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3569,11 +3570,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3662,91 +3663,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="173"/>
-      <c r="I28" s="174" t="s">
+      <c r="G28" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="174"/>
+      <c r="I28" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="177"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="182" t="s">
+      <c r="D29" s="179"/>
+      <c r="E29" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186">
+      <c r="F29" s="182"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="185">
         <v>0.2</v>
       </c>
-      <c r="J29" s="189"/>
-      <c r="K29" s="191">
+      <c r="J29" s="188"/>
+      <c r="K29" s="190">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="178"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="179"/>
+      <c r="C30" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="193" t="s">
+      <c r="D30" s="179"/>
+      <c r="E30" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="194"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="191"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="190"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181" t="s">
+      <c r="A31" s="160"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="193" t="s">
+      <c r="D31" s="180"/>
+      <c r="E31" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="192"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="191"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205" t="s">
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="206"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="196"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="167"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3757,18 +3758,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="179"/>
-      <c r="B33" s="207" t="s">
+      <c r="A33" s="160"/>
+      <c r="B33" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210" t="s">
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="211"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="196"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="167"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3782,16 +3783,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="199" t="s">
+      <c r="B34" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="158"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3878,14 +3879,24 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3902,24 +3913,14 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
@@ -3933,7 +3934,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
@@ -3946,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3992,8 +3993,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -4008,9 +4009,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4032,83 +4033,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4123,93 +4124,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="173"/>
-      <c r="I14" s="174" t="s">
+      <c r="G14" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="177"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="217" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="218"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186">
+      <c r="F15" s="241"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="185">
         <v>0.2</v>
       </c>
-      <c r="J15" s="189">
-        <v>0</v>
-      </c>
-      <c r="K15" s="191">
+      <c r="J15" s="188">
+        <v>0</v>
+      </c>
+      <c r="K15" s="190">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215" t="s">
+      <c r="A16" s="238"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="215"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="239"/>
+      <c r="E16" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="190"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="216" t="s">
+      <c r="A17" s="227"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="219" t="s">
+      <c r="D17" s="240"/>
+      <c r="E17" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="220"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="192"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="191"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="217" t="s">
+      <c r="C18" s="229"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="224"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4223,18 +4224,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="214"/>
-      <c r="B19" s="225" t="s">
+      <c r="A19" s="227"/>
+      <c r="B19" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="226"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228" t="s">
+      <c r="C19" s="234"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="229"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="196"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="167"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4250,16 +4251,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="158"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4334,7 +4335,7 @@
       <c r="H25" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="268" t="s">
         <v>85</v>
       </c>
       <c r="K25" s="35"/>
@@ -4385,88 +4386,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="234"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="234"/>
-      <c r="K29" s="235"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="236"/>
-      <c r="B30" s="237"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="238"/>
+      <c r="A30" s="218"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="220"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="236"/>
-      <c r="B31" s="237"/>
-      <c r="C31" s="237"/>
-      <c r="D31" s="237"/>
-      <c r="E31" s="237"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="238"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="220"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="236"/>
-      <c r="B32" s="237"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="237"/>
-      <c r="G32" s="237"/>
-      <c r="H32" s="237"/>
-      <c r="I32" s="237"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="238"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="220"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="239"/>
-      <c r="B33" s="240"/>
-      <c r="C33" s="240"/>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="241"/>
+      <c r="A33" s="221"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="222"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="223"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="242" t="s">
+      <c r="A35" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="242"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="242"/>
-      <c r="H35" s="243">
+      <c r="B35" s="224"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="225">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="243"/>
+      <c r="I35" s="225"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4476,20 +4477,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="242"/>
-      <c r="C36" s="242"/>
-      <c r="D36" s="242"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="242"/>
-      <c r="H36" s="243">
+      <c r="B36" s="224"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="225">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="243"/>
+      <c r="I36" s="225"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4511,14 +4512,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="230" t="s">
+      <c r="E38" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="231"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="214"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4586,20 +4587,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4616,18 +4615,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
@@ -4708,9 +4709,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4725,10 +4726,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4750,87 +4751,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4846,95 +4847,95 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174" t="s">
+      <c r="H14" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="175"/>
-      <c r="L14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="177"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="217" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186">
+      <c r="G15" s="241"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="185">
         <v>0.2</v>
       </c>
-      <c r="K15" s="189"/>
-      <c r="L15" s="191">
+      <c r="K15" s="188"/>
+      <c r="L15" s="190">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215" t="s">
+      <c r="A16" s="238"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="219" t="s">
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="220"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="191"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="190"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="216" t="s">
+      <c r="A17" s="227"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="219" t="s">
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="220"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="192"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="191"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="217" t="s">
+      <c r="C18" s="229"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="224"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
+      <c r="G18" s="232"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="167"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4946,19 +4947,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="214"/>
-      <c r="B19" s="225" t="s">
+      <c r="A19" s="227"/>
+      <c r="B19" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="226"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="228" t="s">
+      <c r="C19" s="234"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="229"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="196"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4972,17 +4973,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="201"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -5000,88 +5001,88 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="233" t="s">
+      <c r="A23" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="234"/>
-      <c r="C23" s="234"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="234"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="234"/>
-      <c r="J23" s="234"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="235"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="216"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="216"/>
+      <c r="L23" s="217"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="236"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="237"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="237"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="238"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="219"/>
+      <c r="I24" s="219"/>
+      <c r="J24" s="219"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="220"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="236"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="237"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="238"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="220"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="236"/>
-      <c r="B26" s="237"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="237"/>
-      <c r="H26" s="237"/>
-      <c r="I26" s="237"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="238"/>
+      <c r="A26" s="218"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="220"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="239"/>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="240"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="241"/>
+      <c r="A27" s="221"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="222"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="222"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="222"/>
+      <c r="L27" s="223"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="242" t="s">
+      <c r="A29" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="242"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
-      <c r="H29" s="242"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
       <c r="I29" s="244"/>
       <c r="J29" s="244"/>
       <c r="K29" s="140" t="s">
@@ -5093,16 +5094,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
       <c r="I30" s="244"/>
       <c r="J30" s="244"/>
       <c r="K30" s="42" t="s">
@@ -5114,16 +5115,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="242" t="s">
+      <c r="A31" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="242"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-      <c r="F31" s="242"/>
-      <c r="G31" s="242"/>
-      <c r="H31" s="242"/>
+      <c r="B31" s="224"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
       <c r="I31" s="244"/>
       <c r="J31" s="244"/>
       <c r="K31" s="42" t="s">
@@ -5135,16 +5136,16 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="242" t="s">
+      <c r="A32" s="224" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="242"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="224"/>
       <c r="I32" s="244"/>
       <c r="J32" s="244"/>
       <c r="K32" s="42" t="s">
@@ -5156,21 +5157,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="242" t="s">
+      <c r="A33" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="243">
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="225">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="243"/>
+      <c r="J33" s="225"/>
       <c r="K33" s="42" t="s">
         <v>100</v>
       </c>
@@ -5192,14 +5193,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="230" t="s">
+      <c r="F35" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="232"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="214"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5290,18 +5291,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5318,26 +5327,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
@@ -5412,8 +5413,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5428,9 +5429,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5452,83 +5453,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5558,11 +5559,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="168"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="204"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5575,11 +5576,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="164"/>
-      <c r="C16" s="165"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="198"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5592,11 +5593,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="165"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="198"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5609,11 +5610,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="207"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5626,11 +5627,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="164"/>
-      <c r="C19" s="165"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5643,11 +5644,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="164"/>
-      <c r="C20" s="165"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5736,91 +5737,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="173"/>
-      <c r="I28" s="174" t="s">
+      <c r="G28" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="174"/>
+      <c r="I28" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="177"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="182" t="s">
+      <c r="D29" s="179"/>
+      <c r="E29" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186">
+      <c r="F29" s="182"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="185">
         <v>0.2</v>
       </c>
-      <c r="J29" s="189"/>
-      <c r="K29" s="191">
+      <c r="J29" s="188"/>
+      <c r="K29" s="190">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="178"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="B30" s="179"/>
+      <c r="C30" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="193" t="s">
+      <c r="D30" s="179"/>
+      <c r="E30" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="194"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="191"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="190"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181" t="s">
+      <c r="A31" s="160"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="193" t="s">
+      <c r="D31" s="180"/>
+      <c r="E31" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="192"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="191"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205" t="s">
+      <c r="C32" s="162"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="206"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="196"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="167"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5831,18 +5832,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="179"/>
-      <c r="B33" s="207" t="s">
+      <c r="A33" s="160"/>
+      <c r="B33" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210" t="s">
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="211"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="196"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="167"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5856,16 +5857,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="199" t="s">
+      <c r="B34" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="158"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5952,25 +5953,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5986,14 +5976,25 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
@@ -6071,8 +6072,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6087,9 +6088,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6111,83 +6112,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6202,93 +6203,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="173"/>
-      <c r="I14" s="174" t="s">
+      <c r="G14" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="177"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="212" t="s">
+      <c r="A15" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="217" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="218"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186">
+      <c r="F15" s="241"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="185">
         <v>0.2</v>
       </c>
-      <c r="J15" s="189">
-        <v>0</v>
-      </c>
-      <c r="K15" s="191">
+      <c r="J15" s="188">
+        <v>0</v>
+      </c>
+      <c r="K15" s="190">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="213"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215" t="s">
+      <c r="A16" s="238"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="215"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="239"/>
+      <c r="E16" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="190"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="216" t="s">
+      <c r="A17" s="227"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="219" t="s">
+      <c r="D17" s="240"/>
+      <c r="E17" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="220"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="192"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="191"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212" t="s">
+      <c r="A18" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="221" t="s">
+      <c r="B18" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="217" t="s">
+      <c r="C18" s="229"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="224"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6302,18 +6303,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="214"/>
-      <c r="B19" s="225" t="s">
+      <c r="A19" s="227"/>
+      <c r="B19" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="226"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228" t="s">
+      <c r="C19" s="234"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="229"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="196"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="167"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6329,16 +6330,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="158"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6464,88 +6465,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="234"/>
-      <c r="C29" s="234"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="234"/>
-      <c r="K29" s="235"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="236"/>
-      <c r="B30" s="237"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="238"/>
+      <c r="A30" s="218"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="219"/>
+      <c r="K30" s="220"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="236"/>
-      <c r="B31" s="237"/>
-      <c r="C31" s="237"/>
-      <c r="D31" s="237"/>
-      <c r="E31" s="237"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="238"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="219"/>
+      <c r="J31" s="219"/>
+      <c r="K31" s="220"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="236"/>
-      <c r="B32" s="237"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="237"/>
-      <c r="F32" s="237"/>
-      <c r="G32" s="237"/>
-      <c r="H32" s="237"/>
-      <c r="I32" s="237"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="238"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="219"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="219"/>
+      <c r="K32" s="220"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="239"/>
-      <c r="B33" s="240"/>
-      <c r="C33" s="240"/>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="241"/>
+      <c r="A33" s="221"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="222"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="222"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="222"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="223"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="242" t="s">
+      <c r="A35" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="242"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="242"/>
-      <c r="H35" s="243">
+      <c r="B35" s="224"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="225">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="243"/>
+      <c r="I35" s="225"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6555,20 +6556,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="242"/>
-      <c r="C36" s="242"/>
-      <c r="D36" s="242"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="242"/>
-      <c r="H36" s="243">
+      <c r="B36" s="224"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="225">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="243"/>
+      <c r="I36" s="225"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6590,14 +6591,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="230" t="s">
+      <c r="E38" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="231"/>
-      <c r="G38" s="231"/>
-      <c r="H38" s="231"/>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="214"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6665,20 +6666,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6695,18 +6694,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
@@ -6787,9 +6788,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6804,10 +6805,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6821,10 +6822,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6847,30 +6848,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7017,96 +7018,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="248"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="174" t="s">
+      <c r="G23" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="252"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="182" t="s">
+      <c r="D24" s="179"/>
+      <c r="E24" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="250"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="186">
+      <c r="F24" s="254"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="185">
         <v>0.2</v>
       </c>
-      <c r="K24" s="189"/>
-      <c r="L24" s="192">
+      <c r="K24" s="188"/>
+      <c r="L24" s="191">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="178"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180" t="s">
+      <c r="B25" s="179"/>
+      <c r="C25" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="193" t="s">
+      <c r="D25" s="179"/>
+      <c r="E25" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="258"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="254"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="258"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181" t="s">
+      <c r="A26" s="160"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="193" t="s">
+      <c r="D26" s="180"/>
+      <c r="E26" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="255"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="248"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="259"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="202" t="s">
+      <c r="B27" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205" t="s">
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="206"/>
-      <c r="G27" s="259"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="261"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="247"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7118,19 +7119,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="179"/>
-      <c r="B28" s="207" t="s">
+      <c r="A28" s="160"/>
+      <c r="B28" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="210" t="s">
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="211"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="258"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="250"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7144,16 +7145,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="201"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="158"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7244,14 +7245,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7268,12 +7267,14 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
@@ -7350,9 +7351,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7367,10 +7368,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7384,10 +7385,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7416,30 +7417,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7454,93 +7455,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="173"/>
-      <c r="I13" s="174" t="s">
+      <c r="G13" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="177"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="215" t="s">
+      <c r="C14" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="215"/>
-      <c r="E14" s="217" t="s">
+      <c r="D14" s="239"/>
+      <c r="E14" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="218"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186">
+      <c r="F14" s="241"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="185">
         <v>0.2</v>
       </c>
-      <c r="J14" s="189">
-        <v>0</v>
-      </c>
-      <c r="K14" s="191">
+      <c r="J14" s="188">
+        <v>0</v>
+      </c>
+      <c r="K14" s="190">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215" t="s">
+      <c r="A15" s="238"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="215"/>
-      <c r="E15" s="219" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="191"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="190"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="216" t="s">
+      <c r="A16" s="227"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="219" t="s">
+      <c r="D16" s="240"/>
+      <c r="E16" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="220"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="191"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="222"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="217" t="s">
+      <c r="C17" s="229"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="224"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="167"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7554,18 +7555,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="214"/>
-      <c r="B18" s="225" t="s">
+      <c r="A18" s="227"/>
+      <c r="B18" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="226"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="228" t="s">
+      <c r="C18" s="234"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="229"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="196"/>
+      <c r="F18" s="237"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="167"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7581,16 +7582,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="199" t="s">
+      <c r="B19" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="158"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7676,88 +7677,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="233" t="s">
+      <c r="A26" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="235"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="236"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="238"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="236"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="237"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="238"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="220"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="236"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="237"/>
-      <c r="G29" s="237"/>
-      <c r="H29" s="237"/>
-      <c r="I29" s="237"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="238"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="220"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="239"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="240"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="241"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="223"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="242" t="s">
+      <c r="A32" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="242"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242"/>
-      <c r="G32" s="242"/>
-      <c r="H32" s="264">
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="262">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="264"/>
+      <c r="I32" s="262"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7767,20 +7768,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="242" t="s">
+      <c r="A33" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="243">
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="225">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="265"/>
+      <c r="I33" s="263"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7802,14 +7803,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="230" t="s">
+      <c r="E35" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="231"/>
-      <c r="G35" s="231"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="231"/>
-      <c r="J35" s="232"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="214"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7864,20 +7865,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7894,12 +7887,20 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
@@ -7980,9 +7981,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
+      <c r="C4" s="261"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="261"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7997,10 +7998,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="245"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8014,10 +8015,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8040,30 +8041,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8210,96 +8211,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="248"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="174" t="s">
+      <c r="G23" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="252"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="182" t="s">
+      <c r="D24" s="179"/>
+      <c r="E24" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="250"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="186">
+      <c r="F24" s="254"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="257"/>
+      <c r="J24" s="185">
         <v>0.2</v>
       </c>
       <c r="K24" s="266"/>
-      <c r="L24" s="192">
+      <c r="L24" s="191">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="178"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180" t="s">
+      <c r="B25" s="179"/>
+      <c r="C25" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="193" t="s">
+      <c r="D25" s="179"/>
+      <c r="E25" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="258"/>
-      <c r="J25" s="187"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="186"/>
       <c r="K25" s="266"/>
-      <c r="L25" s="254"/>
+      <c r="L25" s="258"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181" t="s">
+      <c r="A26" s="160"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="193" t="s">
+      <c r="D26" s="180"/>
+      <c r="E26" s="192" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="258"/>
-      <c r="J26" s="188"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="248"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="187"/>
       <c r="K26" s="267"/>
-      <c r="L26" s="255"/>
+      <c r="L26" s="259"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="202" t="s">
+      <c r="B27" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205" t="s">
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="206"/>
-      <c r="G27" s="259"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="261"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="247"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8311,19 +8312,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="179"/>
-      <c r="B28" s="207" t="s">
+      <c r="A28" s="160"/>
+      <c r="B28" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="210" t="s">
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="211"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="258"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="250"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8337,16 +8338,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="201"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="158"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8437,6 +8438,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8450,23 +8468,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD27FFC3-6185-4C6C-B2B6-FFCFF951F773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFEABB1-36EA-4DF7-A1CF-8CEDD240B915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" tabRatio="844" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -112,7 +112,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -587,14 +589,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1131,12 +1133,12 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1167,7 +1169,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1177,10 +1179,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1193,10 +1195,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1214,11 +1216,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1250,34 +1252,34 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1290,7 +1292,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1315,36 +1317,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,13 +1355,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,7 +1384,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
@@ -1428,35 +1430,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1469,16 +1471,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,19 +1489,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,171 +1510,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1682,6 +1532,213 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1721,67 +1778,55 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1791,69 +1836,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Dezimal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1866,7 +1868,7 @@
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
     <cellStyle name="Tusental 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1896,6 +1898,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1913,13 +1929,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2439,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J29" sqref="J29:J33"/>
     </sheetView>
   </sheetViews>
@@ -2664,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -2714,9 +2723,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2731,10 +2740,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2748,10 +2757,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2780,30 +2789,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2829,82 +2838,82 @@
       <c r="K13" s="177"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="226" t="s">
+      <c r="A14" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="239" t="s">
+      <c r="B14" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="239" t="s">
+      <c r="C14" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="239"/>
-      <c r="E14" s="231" t="s">
+      <c r="D14" s="216"/>
+      <c r="E14" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="241"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="185">
+      <c r="F14" s="219"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187">
         <v>0.2</v>
       </c>
-      <c r="J14" s="188">
-        <v>0</v>
-      </c>
-      <c r="K14" s="190">
+      <c r="J14" s="190">
+        <v>0</v>
+      </c>
+      <c r="K14" s="192">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="238"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239" t="s">
+      <c r="A15" s="214"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="242" t="s">
+      <c r="D15" s="216"/>
+      <c r="E15" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="190"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="242" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="243"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="226" t="s">
+      <c r="A17" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="231" t="s">
+      <c r="C17" s="223"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="232"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="167"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2918,18 +2927,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="227"/>
-      <c r="B18" s="233" t="s">
+      <c r="A18" s="215"/>
+      <c r="B18" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236" t="s">
+      <c r="C18" s="227"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="237"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="167"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2945,16 +2954,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="158"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3038,88 +3047,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="217"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="236"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="238"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="239"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="219"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
+      <c r="A28" s="237"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="239"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
+      <c r="A29" s="237"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="238"/>
+      <c r="I29" s="238"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="239"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="221"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="222"/>
-      <c r="K30" s="223"/>
+      <c r="A30" s="240"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="242"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="262">
+      <c r="B32" s="243"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="243"/>
+      <c r="H32" s="265">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="262"/>
+      <c r="I32" s="265"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3129,20 +3138,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="225">
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="244">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="263"/>
+      <c r="I33" s="266"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3164,14 +3173,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="212" t="s">
+      <c r="E35" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="214"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="233"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3226,26 +3235,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3262,20 +3251,40 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33 J14:J19 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3339,8 +3348,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3355,9 +3364,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3379,83 +3388,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="209"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="200"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3485,11 +3494,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="204"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3502,11 +3511,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="198"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3519,11 +3528,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3536,11 +3545,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="206"/>
-      <c r="C18" s="207"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3553,11 +3562,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3570,11 +3579,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196" t="s">
+      <c r="A20" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="197"/>
-      <c r="C20" s="198"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3674,80 +3683,80 @@
       <c r="K28" s="177"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="181" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="182"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="185">
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187">
         <v>0.2</v>
       </c>
-      <c r="J29" s="188"/>
-      <c r="K29" s="190">
+      <c r="J29" s="190"/>
+      <c r="K29" s="192">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="178"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179" t="s">
+      <c r="A30" s="179"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="192" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="193"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="190"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="192"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="180" t="s">
+      <c r="A31" s="180"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="192" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="193"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="191"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164" t="s">
+      <c r="C32" s="204"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="167"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3758,18 +3767,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="160"/>
-      <c r="B33" s="168" t="s">
+      <c r="A33" s="180"/>
+      <c r="B33" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171" t="s">
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="172"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="167"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3783,16 +3792,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="156" t="s">
+      <c r="B34" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="158"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="202"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3879,24 +3888,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3913,28 +3912,38 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J34 K29:K37">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
@@ -3947,7 +3956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3993,8 +4002,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -4009,9 +4018,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4033,83 +4042,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="209"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="200"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4135,82 +4144,82 @@
       <c r="K14" s="177"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="239" t="s">
+      <c r="C15" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="231" t="s">
+      <c r="D15" s="216"/>
+      <c r="E15" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="185">
+      <c r="F15" s="219"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187">
         <v>0.2</v>
       </c>
-      <c r="J15" s="188">
-        <v>0</v>
-      </c>
-      <c r="K15" s="190">
+      <c r="J15" s="190">
+        <v>0</v>
+      </c>
+      <c r="K15" s="192">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="238"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239" t="s">
+      <c r="A16" s="214"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="242" t="s">
+      <c r="D16" s="216"/>
+      <c r="E16" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="243"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="190"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="242" t="s">
+      <c r="D17" s="217"/>
+      <c r="E17" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="243"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="191"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="229"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="231" t="s">
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="232"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="167"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4224,18 +4233,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="227"/>
-      <c r="B19" s="233" t="s">
+      <c r="A19" s="215"/>
+      <c r="B19" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="236" t="s">
+      <c r="C19" s="227"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="237"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="167"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4251,16 +4260,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="158"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4335,7 +4344,7 @@
       <c r="H25" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="268" t="s">
+      <c r="I25" s="156" t="s">
         <v>85</v>
       </c>
       <c r="K25" s="35"/>
@@ -4386,88 +4395,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="217"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="236"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
-      <c r="B30" s="219"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="238"/>
+      <c r="J30" s="238"/>
+      <c r="K30" s="239"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="218"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
+      <c r="A31" s="237"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="238"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="239"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="220"/>
+      <c r="A32" s="237"/>
+      <c r="B32" s="238"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="238"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="239"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="221"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="222"/>
-      <c r="E33" s="222"/>
-      <c r="F33" s="222"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
-      <c r="K33" s="223"/>
+      <c r="A33" s="240"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="242"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="224"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="224"/>
-      <c r="F35" s="224"/>
-      <c r="G35" s="224"/>
-      <c r="H35" s="225">
+      <c r="B35" s="243"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="244">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="225"/>
+      <c r="I35" s="244"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4477,20 +4486,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="224"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="224"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="224"/>
-      <c r="H36" s="225">
+      <c r="B36" s="243"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="243"/>
+      <c r="H36" s="244">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="225"/>
+      <c r="I36" s="244"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4512,14 +4521,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="212" t="s">
+      <c r="E38" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="214"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="232"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="232"/>
+      <c r="J38" s="233"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4587,18 +4596,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4615,34 +4626,32 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I36 J15:J20 K15:K42">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4709,9 +4718,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4726,10 +4735,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4751,87 +4760,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="209"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
-      <c r="L8" s="201"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="200"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4858,84 +4867,84 @@
       <c r="L14" s="177"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="239" t="s">
+      <c r="C15" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="231" t="s">
+      <c r="D15" s="216"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="185">
+      <c r="G15" s="219"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187">
         <v>0.2</v>
       </c>
-      <c r="K15" s="188"/>
-      <c r="L15" s="190">
+      <c r="K15" s="190"/>
+      <c r="L15" s="192">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="238"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239" t="s">
+      <c r="A16" s="214"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="242" t="s">
+      <c r="D16" s="216"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="243"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="190"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="192"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="242" t="s">
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="243"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="191"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="193"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="229"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="230"/>
-      <c r="F18" s="231" t="s">
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="232"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4947,19 +4956,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="227"/>
-      <c r="B19" s="233" t="s">
+      <c r="A19" s="215"/>
+      <c r="B19" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="236" t="s">
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="237"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="167"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4973,17 +4982,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="202"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -5001,90 +5010,90 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="215" t="s">
+      <c r="A23" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216"/>
-      <c r="K23" s="216"/>
-      <c r="L23" s="217"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="235"/>
+      <c r="D23" s="235"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="235"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="236"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="219"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="219"/>
-      <c r="H24" s="219"/>
-      <c r="I24" s="219"/>
-      <c r="J24" s="219"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="220"/>
+      <c r="A24" s="237"/>
+      <c r="B24" s="238"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="238"/>
+      <c r="H24" s="238"/>
+      <c r="I24" s="238"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="239"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="220"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="238"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="239"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="218"/>
-      <c r="B26" s="219"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="219"/>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="220"/>
+      <c r="A26" s="237"/>
+      <c r="B26" s="238"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="238"/>
+      <c r="F26" s="238"/>
+      <c r="G26" s="238"/>
+      <c r="H26" s="238"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="239"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="221"/>
-      <c r="B27" s="222"/>
-      <c r="C27" s="222"/>
-      <c r="D27" s="222"/>
-      <c r="E27" s="222"/>
-      <c r="F27" s="222"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="222"/>
-      <c r="J27" s="222"/>
-      <c r="K27" s="222"/>
-      <c r="L27" s="223"/>
+      <c r="A27" s="240"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="241"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="241"/>
+      <c r="J27" s="241"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="242"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="244"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="243"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="245"/>
       <c r="K29" s="140" t="s">
         <v>45</v>
       </c>
@@ -5094,18 +5103,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="224" t="s">
+      <c r="A30" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="244"/>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="243"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="245"/>
       <c r="K30" s="42" t="s">
         <v>45</v>
       </c>
@@ -5115,18 +5124,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="224" t="s">
+      <c r="A31" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="224"/>
-      <c r="C31" s="224"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="244"/>
+      <c r="B31" s="243"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="245"/>
       <c r="K31" s="42" t="s">
         <v>100</v>
       </c>
@@ -5136,18 +5145,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="244"/>
+      <c r="B32" s="243"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="243"/>
+      <c r="H32" s="243"/>
+      <c r="I32" s="245"/>
+      <c r="J32" s="245"/>
       <c r="K32" s="42" t="s">
         <v>47</v>
       </c>
@@ -5157,21 +5166,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="225">
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="244">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="225"/>
+      <c r="J33" s="244"/>
       <c r="K33" s="42" t="s">
         <v>100</v>
       </c>
@@ -5193,14 +5202,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="214"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="233"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5291,26 +5300,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5327,32 +5328,40 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K20 I29:J33 L15:L39">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5413,8 +5422,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5429,9 +5438,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5453,83 +5462,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="209"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="200"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5559,11 +5568,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="202" t="s">
+      <c r="A15" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="204"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5576,11 +5585,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="198"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5593,11 +5602,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="197"/>
-      <c r="C17" s="198"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5610,11 +5619,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="206"/>
-      <c r="C18" s="207"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5627,11 +5636,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="198"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5644,11 +5653,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196" t="s">
+      <c r="A20" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="197"/>
-      <c r="C20" s="198"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5748,80 +5757,80 @@
       <c r="K28" s="177"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="181" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="182"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="185">
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187">
         <v>0.2</v>
       </c>
-      <c r="J29" s="188"/>
-      <c r="K29" s="190">
+      <c r="J29" s="190"/>
+      <c r="K29" s="192">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="178"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179" t="s">
+      <c r="A30" s="179"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="192" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="193"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="190"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="192"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="180" t="s">
+      <c r="A31" s="180"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="192" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="193"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="191"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="161" t="s">
+      <c r="B32" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164" t="s">
+      <c r="C32" s="204"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="165"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="167"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="197"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5832,18 +5841,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="160"/>
-      <c r="B33" s="168" t="s">
+      <c r="A33" s="180"/>
+      <c r="B33" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171" t="s">
+      <c r="C33" s="209"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="172"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="167"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="197"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5857,16 +5866,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="156" t="s">
+      <c r="B34" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="158"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="202"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5953,14 +5962,25 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5976,39 +5996,28 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J34 K29:K37">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6072,8 +6081,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6088,9 +6097,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6112,83 +6121,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="209"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="200"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="200"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6214,82 +6223,82 @@
       <c r="K14" s="177"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="239" t="s">
+      <c r="B15" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="239" t="s">
+      <c r="C15" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="231" t="s">
+      <c r="D15" s="216"/>
+      <c r="E15" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="185">
+      <c r="F15" s="219"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187">
         <v>0.2</v>
       </c>
-      <c r="J15" s="188">
-        <v>0</v>
-      </c>
-      <c r="K15" s="190">
+      <c r="J15" s="190">
+        <v>0</v>
+      </c>
+      <c r="K15" s="192">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="238"/>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239" t="s">
+      <c r="A16" s="214"/>
+      <c r="B16" s="216"/>
+      <c r="C16" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="242" t="s">
+      <c r="D16" s="216"/>
+      <c r="E16" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="243"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="190"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="242" t="s">
+      <c r="D17" s="217"/>
+      <c r="E17" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="243"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="191"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="229"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="231" t="s">
+      <c r="C18" s="223"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="232"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="167"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6303,18 +6312,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="227"/>
-      <c r="B19" s="233" t="s">
+      <c r="A19" s="215"/>
+      <c r="B19" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="236" t="s">
+      <c r="C19" s="227"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="237"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="167"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="197"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6330,16 +6339,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="158"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6465,88 +6474,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="217"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="236"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
-      <c r="B30" s="219"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="220"/>
+      <c r="A30" s="237"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="238"/>
+      <c r="J30" s="238"/>
+      <c r="K30" s="239"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="218"/>
-      <c r="B31" s="219"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="220"/>
+      <c r="A31" s="237"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="238"/>
+      <c r="I31" s="238"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="239"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="219"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="220"/>
+      <c r="A32" s="237"/>
+      <c r="B32" s="238"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="238"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="239"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="221"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="222"/>
-      <c r="E33" s="222"/>
-      <c r="F33" s="222"/>
-      <c r="G33" s="222"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
-      <c r="K33" s="223"/>
+      <c r="A33" s="240"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="241"/>
+      <c r="K33" s="242"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="224"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="224"/>
-      <c r="F35" s="224"/>
-      <c r="G35" s="224"/>
-      <c r="H35" s="225">
+      <c r="B35" s="243"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="244">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="225"/>
+      <c r="I35" s="244"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6556,20 +6565,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="224" t="s">
+      <c r="A36" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="224"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="224"/>
-      <c r="E36" s="224"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="224"/>
-      <c r="H36" s="225">
+      <c r="B36" s="243"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="243"/>
+      <c r="H36" s="244">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="225"/>
+      <c r="I36" s="244"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6591,14 +6600,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="212" t="s">
+      <c r="E38" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="214"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="232"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="232"/>
+      <c r="J38" s="233"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6666,18 +6675,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6694,34 +6705,32 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I36 J15:J20 K15:K42">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6788,9 +6797,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6805,10 +6814,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6822,10 +6831,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6848,30 +6857,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7018,11 +7027,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="252"/>
-      <c r="I23" s="253"/>
+      <c r="G23" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="249"/>
+      <c r="I23" s="250"/>
       <c r="J23" s="175" t="s">
         <v>7</v>
       </c>
@@ -7030,84 +7039,84 @@
       <c r="L23" s="177"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="179"/>
-      <c r="E24" s="181" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="254"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="185">
+      <c r="F24" s="251"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="187">
         <v>0.2</v>
       </c>
-      <c r="K24" s="188"/>
-      <c r="L24" s="191">
+      <c r="K24" s="190"/>
+      <c r="L24" s="193">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="192" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="258"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="257"/>
+      <c r="H25" s="258"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="255"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="160"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="A26" s="180"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="192" t="s">
+      <c r="D26" s="182"/>
+      <c r="E26" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="193"/>
-      <c r="G26" s="248"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="259"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="256"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="164" t="s">
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="165"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="247"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="262"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7119,19 +7128,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="160"/>
-      <c r="B28" s="168" t="s">
+      <c r="A28" s="180"/>
+      <c r="B28" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171" t="s">
+      <c r="C28" s="209"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="172"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="250"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="258"/>
+      <c r="I28" s="259"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7145,16 +7154,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="158"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="202"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7245,12 +7254,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7267,22 +7278,20 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 L27:L28 J29 K24:K29 L30:L32">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
@@ -7301,8 +7310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7351,9 +7360,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7368,10 +7377,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7385,10 +7394,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7417,30 +7426,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7466,82 +7475,82 @@
       <c r="K13" s="177"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="226" t="s">
+      <c r="A14" s="213" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="239" t="s">
+      <c r="B14" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="239" t="s">
+      <c r="C14" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="239"/>
-      <c r="E14" s="231" t="s">
+      <c r="D14" s="216"/>
+      <c r="E14" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="241"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="185">
+      <c r="F14" s="219"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187">
         <v>0.2</v>
       </c>
-      <c r="J14" s="188">
-        <v>0</v>
-      </c>
-      <c r="K14" s="190">
+      <c r="J14" s="190">
+        <v>0</v>
+      </c>
+      <c r="K14" s="192">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="238"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239" t="s">
+      <c r="A15" s="214"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="242" t="s">
+      <c r="D15" s="216"/>
+      <c r="E15" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="190"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="227"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="242" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="243"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="226" t="s">
+      <c r="A17" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="231" t="s">
+      <c r="C17" s="223"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="232"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="167"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7555,18 +7564,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="227"/>
-      <c r="B18" s="233" t="s">
+      <c r="A18" s="215"/>
+      <c r="B18" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236" t="s">
+      <c r="C18" s="227"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="237"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="167"/>
+      <c r="F18" s="230"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7582,16 +7591,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="158"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7677,88 +7686,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="216"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="217"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="235"/>
+      <c r="D26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="235"/>
+      <c r="K26" s="236"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="219"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="220"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="238"/>
+      <c r="I27" s="238"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="239"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="219"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="220"/>
+      <c r="A28" s="237"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="239"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="220"/>
+      <c r="A29" s="237"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="238"/>
+      <c r="I29" s="238"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="239"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="221"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="222"/>
-      <c r="K30" s="223"/>
+      <c r="A30" s="240"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
+      <c r="I30" s="241"/>
+      <c r="J30" s="241"/>
+      <c r="K30" s="242"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="262">
+      <c r="B32" s="243"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="243"/>
+      <c r="H32" s="265">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="262"/>
+      <c r="I32" s="265"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7768,20 +7777,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="225">
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="244">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="263"/>
+      <c r="I33" s="266"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7803,14 +7812,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="212" t="s">
+      <c r="E35" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="214"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="233"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7865,12 +7874,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7887,34 +7904,15 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I33 J14:J19 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="notBetween">
-      <formula>0</formula>
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7981,9 +7979,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7998,10 +7996,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8015,10 +8013,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8041,30 +8039,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8211,11 +8209,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="252"/>
-      <c r="I23" s="253"/>
+      <c r="G23" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="249"/>
+      <c r="I23" s="250"/>
       <c r="J23" s="175" t="s">
         <v>7</v>
       </c>
@@ -8223,84 +8221,84 @@
       <c r="L23" s="177"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="179" t="s">
+      <c r="C24" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="179"/>
-      <c r="E24" s="181" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="254"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="185">
+      <c r="F24" s="251"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="187">
         <v>0.2</v>
       </c>
-      <c r="K24" s="266"/>
-      <c r="L24" s="191">
+      <c r="K24" s="267"/>
+      <c r="L24" s="193">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="192" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="266"/>
-      <c r="L25" s="258"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="257"/>
+      <c r="H25" s="258"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="255"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="160"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180" t="s">
+      <c r="A26" s="180"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="192" t="s">
+      <c r="D26" s="182"/>
+      <c r="E26" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="193"/>
-      <c r="G26" s="248"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="267"/>
-      <c r="L26" s="259"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="256"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B27" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="164" t="s">
+      <c r="C27" s="204"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="165"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="247"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="262"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8312,19 +8310,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="160"/>
-      <c r="B28" s="168" t="s">
+      <c r="A28" s="180"/>
+      <c r="B28" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171" t="s">
+      <c r="C28" s="209"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="172"/>
-      <c r="G28" s="248"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="250"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="258"/>
+      <c r="I28" s="259"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8338,16 +8336,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="158"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="202"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8438,23 +8436,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8468,14 +8449,31 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 L27:L28 J29 K24:K29 L30:L32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFEABB1-36EA-4DF7-A1CF-8CEDD240B915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589A108-F269-4489-9BA6-C0CA9020A81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,7 +1142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1519,10 +1519,163 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1532,177 +1685,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -1711,142 +1780,73 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1855,6 +1855,9 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1868,42 +1871,7 @@
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
     <cellStyle name="Tusental 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1950,6 +1918,13 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2723,9 +2698,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2740,10 +2715,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2757,10 +2732,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2789,30 +2764,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2827,93 +2802,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="174"/>
-      <c r="I13" s="175" t="s">
+      <c r="G13" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="175"/>
+      <c r="I13" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="218" t="s">
+      <c r="D14" s="240"/>
+      <c r="E14" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187">
+      <c r="F14" s="242"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186">
         <v>0.2</v>
       </c>
-      <c r="J14" s="190">
-        <v>0</v>
-      </c>
-      <c r="K14" s="192">
+      <c r="J14" s="189">
+        <v>0</v>
+      </c>
+      <c r="K14" s="191">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="214"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="216" t="s">
+      <c r="A15" s="239"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="220" t="s">
+      <c r="D15" s="240"/>
+      <c r="E15" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="192"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="191"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="228"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="221"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213" t="s">
+      <c r="A17" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="218" t="s">
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="225"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2927,18 +2902,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="215"/>
-      <c r="B18" s="226" t="s">
+      <c r="A18" s="228"/>
+      <c r="B18" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="227"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="229" t="s">
+      <c r="C18" s="235"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="230"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2954,16 +2929,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3047,88 +3022,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="236"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="218"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="237"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="238"/>
-      <c r="F27" s="238"/>
-      <c r="G27" s="238"/>
-      <c r="H27" s="238"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="239"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="220"/>
+      <c r="K27" s="221"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="237"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="239"/>
+      <c r="A28" s="219"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="221"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="237"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="239"/>
+      <c r="A29" s="219"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="221"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="240"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="242"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="243"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="265">
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="263">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="265"/>
+      <c r="I32" s="263"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3138,20 +3113,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="243" t="s">
+      <c r="A33" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="244">
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="225"/>
+      <c r="H33" s="226">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="266"/>
+      <c r="I33" s="264"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3173,14 +3148,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="231" t="s">
+      <c r="E35" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
-      <c r="H35" s="232"/>
-      <c r="I35" s="232"/>
-      <c r="J35" s="233"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3235,6 +3210,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3251,40 +3246,20 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I33 J14:J19 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3348,8 +3323,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3364,9 +3339,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3388,83 +3363,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3494,11 +3469,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="205"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3511,11 +3486,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3528,11 +3503,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="199"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3545,11 +3520,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3562,11 +3537,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3579,11 +3554,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3672,91 +3647,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="175" t="s">
+      <c r="G28" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="183" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="184"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187">
+      <c r="F29" s="183"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186">
         <v>0.2</v>
       </c>
-      <c r="J29" s="190"/>
-      <c r="K29" s="192">
+      <c r="J29" s="189"/>
+      <c r="K29" s="191">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="179"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="194" t="s">
+      <c r="D30" s="180"/>
+      <c r="E30" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="195"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="192"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="191"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182" t="s">
+      <c r="A31" s="161"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="194" t="s">
+      <c r="D31" s="181"/>
+      <c r="E31" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="195"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="193"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="192"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="178" t="s">
+      <c r="A32" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206" t="s">
+      <c r="C32" s="163"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="207"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3767,18 +3742,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="208" t="s">
+      <c r="A33" s="161"/>
+      <c r="B33" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211" t="s">
+      <c r="C33" s="170"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="212"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3792,16 +3767,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="159"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3888,14 +3863,24 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3912,32 +3897,22 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J34 K29:K37">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
@@ -4002,8 +3977,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -4018,9 +3993,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4042,83 +4017,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4133,93 +4108,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="174"/>
-      <c r="I14" s="175" t="s">
+      <c r="G14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="176"/>
-      <c r="K14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="218" t="s">
+      <c r="D15" s="240"/>
+      <c r="E15" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187">
+      <c r="F15" s="242"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186">
         <v>0.2</v>
       </c>
-      <c r="J15" s="190">
-        <v>0</v>
-      </c>
-      <c r="K15" s="192">
+      <c r="J15" s="189">
+        <v>0</v>
+      </c>
+      <c r="K15" s="191">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="216" t="s">
+      <c r="A16" s="239"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="240"/>
+      <c r="E16" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="221"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="191"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="215"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217" t="s">
+      <c r="A17" s="228"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="217"/>
-      <c r="E17" s="220" t="s">
+      <c r="D17" s="241"/>
+      <c r="E17" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="221"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="193"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="192"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="218" t="s">
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="225"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4233,18 +4208,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="215"/>
-      <c r="B19" s="226" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="229" t="s">
+      <c r="C19" s="235"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="230"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="168"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4260,16 +4235,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4395,88 +4370,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="234" t="s">
+      <c r="A29" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="235"/>
-      <c r="J29" s="235"/>
-      <c r="K29" s="236"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="218"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="237"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
-      <c r="I30" s="238"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="239"/>
+      <c r="A30" s="219"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="221"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="237"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="238"/>
-      <c r="J31" s="238"/>
-      <c r="K31" s="239"/>
+      <c r="A31" s="219"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="221"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="237"/>
-      <c r="B32" s="238"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="238"/>
-      <c r="I32" s="238"/>
-      <c r="J32" s="238"/>
-      <c r="K32" s="239"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="221"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="240"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="242"/>
+      <c r="A33" s="222"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="224"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="243" t="s">
+      <c r="A35" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="243"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="244">
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
+      <c r="H35" s="226">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="244"/>
+      <c r="I35" s="226"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4486,20 +4461,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="243" t="s">
+      <c r="A36" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="243"/>
-      <c r="C36" s="243"/>
-      <c r="D36" s="243"/>
-      <c r="E36" s="243"/>
-      <c r="F36" s="243"/>
-      <c r="G36" s="243"/>
-      <c r="H36" s="244">
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="226">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="244"/>
+      <c r="I36" s="226"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4521,14 +4496,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="231" t="s">
+      <c r="E38" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="232"/>
-      <c r="J38" s="233"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4596,20 +4571,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4626,32 +4599,34 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I36 J15:J20 K15:K42">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4718,9 +4693,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4735,10 +4710,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4760,87 +4735,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4856,95 +4831,95 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175" t="s">
+      <c r="H14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="218" t="s">
+      <c r="D15" s="240"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="219"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187">
+      <c r="G15" s="242"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186">
         <v>0.2</v>
       </c>
-      <c r="K15" s="190"/>
-      <c r="L15" s="192">
+      <c r="K15" s="189"/>
+      <c r="L15" s="191">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="216" t="s">
+      <c r="A16" s="239"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="220" t="s">
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="221"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="192"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="191"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="215"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217" t="s">
+      <c r="A17" s="228"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="220" t="s">
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="221"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="193"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="192"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="218" t="s">
+      <c r="C18" s="230"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="225"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="197"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="168"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4956,19 +4931,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="215"/>
-      <c r="B19" s="226" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="229" t="s">
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="230"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="197"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="168"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4982,17 +4957,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="202"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -5010,88 +4985,88 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="234" t="s">
+      <c r="A23" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="235"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="235"/>
-      <c r="K23" s="235"/>
-      <c r="L23" s="236"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="218"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="237"/>
-      <c r="B24" s="238"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="238"/>
-      <c r="E24" s="238"/>
-      <c r="F24" s="238"/>
-      <c r="G24" s="238"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="238"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="238"/>
-      <c r="L24" s="239"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="221"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="237"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="238"/>
-      <c r="D25" s="238"/>
-      <c r="E25" s="238"/>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="239"/>
+      <c r="A25" s="219"/>
+      <c r="B25" s="220"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="220"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="220"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="221"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="237"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="238"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="238"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="239"/>
+      <c r="A26" s="219"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="220"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="220"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="221"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="240"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="242"/>
+      <c r="A27" s="222"/>
+      <c r="B27" s="223"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="224"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="243" t="s">
+      <c r="A29" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="243"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="243"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="225"/>
+      <c r="G29" s="225"/>
+      <c r="H29" s="225"/>
       <c r="I29" s="245"/>
       <c r="J29" s="245"/>
       <c r="K29" s="140" t="s">
@@ -5103,16 +5078,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="243"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="225"/>
       <c r="I30" s="245"/>
       <c r="J30" s="245"/>
       <c r="K30" s="42" t="s">
@@ -5124,16 +5099,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="243" t="s">
+      <c r="A31" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="243"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
+      <c r="B31" s="225"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="225"/>
       <c r="I31" s="245"/>
       <c r="J31" s="245"/>
       <c r="K31" s="42" t="s">
@@ -5145,16 +5120,16 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="243"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
       <c r="I32" s="245"/>
       <c r="J32" s="245"/>
       <c r="K32" s="42" t="s">
@@ -5166,21 +5141,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="243" t="s">
+      <c r="A33" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="244">
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="225"/>
+      <c r="H33" s="225"/>
+      <c r="I33" s="226">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="244"/>
+      <c r="J33" s="226"/>
       <c r="K33" s="42" t="s">
         <v>100</v>
       </c>
@@ -5202,14 +5177,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="231" t="s">
+      <c r="F35" s="213" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="232"/>
-      <c r="H35" s="232"/>
-      <c r="I35" s="232"/>
-      <c r="J35" s="232"/>
-      <c r="K35" s="233"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="215"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5300,18 +5275,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5328,40 +5311,32 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K20 I29:J33 L15:L39">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5422,8 +5397,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5438,9 +5413,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5462,83 +5437,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5568,11 +5543,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
+      <c r="B15" s="204"/>
+      <c r="C15" s="205"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5585,11 +5560,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5602,11 +5577,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="199"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5619,11 +5594,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5636,11 +5611,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="166"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5653,11 +5628,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="166"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="199"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5746,91 +5721,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="175" t="s">
+      <c r="G28" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="183" t="s">
+      <c r="D29" s="180"/>
+      <c r="E29" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="184"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187">
+      <c r="F29" s="183"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186">
         <v>0.2</v>
       </c>
-      <c r="J29" s="190"/>
-      <c r="K29" s="192">
+      <c r="J29" s="189"/>
+      <c r="K29" s="191">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="179"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="194" t="s">
+      <c r="D30" s="180"/>
+      <c r="E30" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="195"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="192"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="191"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182" t="s">
+      <c r="A31" s="161"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="194" t="s">
+      <c r="D31" s="181"/>
+      <c r="E31" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="195"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="193"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="196"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="192"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="178" t="s">
+      <c r="A32" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="204"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206" t="s">
+      <c r="C32" s="163"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="207"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="197"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="168"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5841,18 +5816,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="180"/>
-      <c r="B33" s="208" t="s">
+      <c r="A33" s="161"/>
+      <c r="B33" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211" t="s">
+      <c r="C33" s="170"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="212"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="197"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="168"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5866,16 +5841,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="202"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="159"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5962,25 +5937,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5996,28 +5960,39 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:J34 K29:K37">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6081,8 +6056,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6097,9 +6072,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6121,83 +6096,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
+      <c r="H8" s="201"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="202"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="162"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="202"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6212,93 +6187,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="174"/>
-      <c r="I14" s="175" t="s">
+      <c r="G14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="176"/>
-      <c r="K14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="216" t="s">
+      <c r="B15" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="218" t="s">
+      <c r="D15" s="240"/>
+      <c r="E15" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187">
+      <c r="F15" s="242"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186">
         <v>0.2</v>
       </c>
-      <c r="J15" s="190">
-        <v>0</v>
-      </c>
-      <c r="K15" s="192">
+      <c r="J15" s="189">
+        <v>0</v>
+      </c>
+      <c r="K15" s="191">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="214"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="216" t="s">
+      <c r="A16" s="239"/>
+      <c r="B16" s="240"/>
+      <c r="C16" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="216"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="240"/>
+      <c r="E16" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="221"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="191"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="215"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217" t="s">
+      <c r="A17" s="228"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="217"/>
-      <c r="E17" s="220" t="s">
+      <c r="D17" s="241"/>
+      <c r="E17" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="221"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="193"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="192"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="213" t="s">
+      <c r="A18" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="218" t="s">
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="225"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6312,18 +6287,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="215"/>
-      <c r="B19" s="226" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="227"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="229" t="s">
+      <c r="C19" s="235"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="230"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="197"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="168"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6339,16 +6314,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6474,88 +6449,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="234" t="s">
+      <c r="A29" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="235"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="235"/>
-      <c r="J29" s="235"/>
-      <c r="K29" s="236"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="218"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="237"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="238"/>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
-      <c r="I30" s="238"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="239"/>
+      <c r="A30" s="219"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="221"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="237"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
-      <c r="I31" s="238"/>
-      <c r="J31" s="238"/>
-      <c r="K31" s="239"/>
+      <c r="A31" s="219"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="221"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="237"/>
-      <c r="B32" s="238"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="238"/>
-      <c r="I32" s="238"/>
-      <c r="J32" s="238"/>
-      <c r="K32" s="239"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="221"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="240"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="242"/>
+      <c r="A33" s="222"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="224"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="243" t="s">
+      <c r="A35" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="243"/>
-      <c r="C35" s="243"/>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="244">
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
+      <c r="H35" s="226">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="244"/>
+      <c r="I35" s="226"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6565,20 +6540,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="243" t="s">
+      <c r="A36" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="243"/>
-      <c r="C36" s="243"/>
-      <c r="D36" s="243"/>
-      <c r="E36" s="243"/>
-      <c r="F36" s="243"/>
-      <c r="G36" s="243"/>
-      <c r="H36" s="244">
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="226">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="244"/>
+      <c r="I36" s="226"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6600,14 +6575,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="231" t="s">
+      <c r="E38" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="232"/>
-      <c r="J38" s="233"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6675,20 +6650,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6705,32 +6678,34 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I36 J15:J20 K15:K42">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6797,9 +6772,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6814,10 +6789,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6831,10 +6806,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="246"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6857,30 +6832,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7027,96 +7002,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="248" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="249"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="175" t="s">
+      <c r="G23" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="253"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="251"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="187">
+      <c r="F24" s="255"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="186">
         <v>0.2</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="193">
+      <c r="K24" s="189"/>
+      <c r="L24" s="192">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="179"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181" t="s">
+      <c r="B25" s="180"/>
+      <c r="C25" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="180"/>
+      <c r="E25" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="195"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="255"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="259"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="182" t="s">
+      <c r="A26" s="161"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="194" t="s">
+      <c r="D26" s="181"/>
+      <c r="E26" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="256"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="250"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="260"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206" t="s">
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="207"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="262"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="248"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7128,19 +7103,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="180"/>
-      <c r="B28" s="208" t="s">
+      <c r="A28" s="161"/>
+      <c r="B28" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211" t="s">
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="212"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="259"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="251"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7154,16 +7129,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="202"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7254,14 +7229,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7278,20 +7251,22 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 L27:L28 J29 K24:K29 L30:L32">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
@@ -7310,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:K16"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7360,9 +7335,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7377,10 +7352,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7394,10 +7369,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7418,7 +7393,7 @@
         <v>73</v>
       </c>
       <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="K7" s="269"/>
       <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7426,30 +7401,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
+      <c r="C8" s="266"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="265"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7464,93 +7439,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="174"/>
-      <c r="I13" s="175" t="s">
+      <c r="G13" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="175"/>
+      <c r="I13" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="176"/>
-      <c r="K13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="E14" s="218" t="s">
+      <c r="D14" s="240"/>
+      <c r="E14" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187">
+      <c r="F14" s="242"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186">
         <v>0.2</v>
       </c>
-      <c r="J14" s="190">
-        <v>0</v>
-      </c>
-      <c r="K14" s="192">
+      <c r="J14" s="189">
+        <v>0</v>
+      </c>
+      <c r="K14" s="191">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="214"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="216" t="s">
+      <c r="A15" s="239"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="216"/>
-      <c r="E15" s="220" t="s">
+      <c r="D15" s="240"/>
+      <c r="E15" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="192"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="191"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="228"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="221"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="213" t="s">
+      <c r="A17" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="218" t="s">
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="225"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="168"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7564,18 +7539,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="215"/>
-      <c r="B18" s="226" t="s">
+      <c r="A18" s="228"/>
+      <c r="B18" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="227"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="229" t="s">
+      <c r="C18" s="235"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="230"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="168"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7591,16 +7566,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7686,88 +7661,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="234" t="s">
+      <c r="A26" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="235"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="236"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="218"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="237"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="238"/>
-      <c r="F27" s="238"/>
-      <c r="G27" s="238"/>
-      <c r="H27" s="238"/>
-      <c r="I27" s="238"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="239"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="220"/>
+      <c r="K27" s="221"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="237"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="239"/>
+      <c r="A28" s="219"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="221"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="237"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="239"/>
+      <c r="A29" s="219"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="221"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="240"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="242"/>
+      <c r="A30" s="222"/>
+      <c r="B30" s="223"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="243"/>
-      <c r="C32" s="243"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="265">
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="263">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="265"/>
+      <c r="I32" s="263"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7777,20 +7752,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="243" t="s">
+      <c r="A33" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="244">
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="225"/>
+      <c r="H33" s="226">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="266"/>
+      <c r="I33" s="264"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7812,14 +7787,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="231" t="s">
+      <c r="E35" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
-      <c r="H35" s="232"/>
-      <c r="I35" s="232"/>
-      <c r="J35" s="233"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7874,20 +7849,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7904,15 +7871,23 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7979,9 +7954,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7996,10 +7971,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8013,10 +7988,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="246"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8039,30 +8014,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="261"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8209,96 +8184,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="248" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="249"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="175" t="s">
+      <c r="G23" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="253"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="180"/>
+      <c r="E24" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="251"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="187">
+      <c r="F24" s="255"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="257"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="186">
         <v>0.2</v>
       </c>
       <c r="K24" s="267"/>
-      <c r="L24" s="193">
+      <c r="L24" s="192">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="179"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181" t="s">
+      <c r="B25" s="180"/>
+      <c r="C25" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="180"/>
+      <c r="E25" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="195"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="188"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="187"/>
       <c r="K25" s="267"/>
-      <c r="L25" s="255"/>
+      <c r="L25" s="259"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="182" t="s">
+      <c r="A26" s="161"/>
+      <c r="B26" s="181"/>
+      <c r="C26" s="181" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="194" t="s">
+      <c r="D26" s="181"/>
+      <c r="E26" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="189"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="250"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="188"/>
       <c r="K26" s="268"/>
-      <c r="L26" s="256"/>
+      <c r="L26" s="260"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="206" t="s">
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="207"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="262"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="248"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8310,19 +8285,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="180"/>
-      <c r="B28" s="208" t="s">
+      <c r="A28" s="161"/>
+      <c r="B28" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211" t="s">
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="212"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="259"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="251"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8336,16 +8311,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="202"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="159"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8436,6 +8411,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8449,31 +8441,14 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 L27:L28 J29 K24:K29 L30:L32">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notBetween">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589A108-F269-4489-9BA6-C0CA9020A81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EC5295-B2E6-40CA-983B-E1B52C313BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="844" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -1519,73 +1519,75 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1635,55 +1637,110 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1726,65 +1783,53 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1794,46 +1839,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1841,12 +1850,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1855,9 +1858,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2663,7 +2663,7 @@
     <col min="8" max="8" width="6.1328125" style="100" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="100" customWidth="1"/>
     <col min="10" max="10" width="6.59765625" style="100" customWidth="1"/>
-    <col min="11" max="11" width="8.3984375" style="100" customWidth="1"/>
+    <col min="11" max="11" width="7.73046875" style="100" customWidth="1"/>
     <col min="12" max="12" width="6.3984375" style="100" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1328125" style="100"/>
   </cols>
@@ -2698,9 +2698,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2715,10 +2715,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2732,10 +2732,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2764,30 +2764,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,82 +2813,82 @@
       <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="227" t="s">
+      <c r="A14" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="240" t="s">
+      <c r="C14" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="240"/>
-      <c r="E14" s="232" t="s">
+      <c r="D14" s="217"/>
+      <c r="E14" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="242"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186">
+      <c r="F14" s="220"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188">
         <v>0.2</v>
       </c>
-      <c r="J14" s="189">
-        <v>0</v>
-      </c>
-      <c r="K14" s="191">
+      <c r="J14" s="191">
+        <v>0</v>
+      </c>
+      <c r="K14" s="193">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="239"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240" t="s">
+      <c r="A15" s="215"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="243" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="244"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="191"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="228"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241" t="s">
+      <c r="A16" s="216"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="243" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="244"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227" t="s">
+      <c r="A17" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="232" t="s">
+      <c r="C17" s="224"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="233"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2902,18 +2902,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="228"/>
-      <c r="B18" s="234" t="s">
+      <c r="A18" s="216"/>
+      <c r="B18" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="237" t="s">
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="238"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2929,16 +2929,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3022,88 +3022,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="217"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="218"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="219"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="221"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="240"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="219"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="221"/>
+      <c r="A28" s="238"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="219"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="222"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="243"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="225" t="s">
+      <c r="A32" s="244" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="263">
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="266">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="263"/>
+      <c r="I32" s="266"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3113,20 +3113,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="225" t="s">
+      <c r="A33" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="226">
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="245">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="264"/>
+      <c r="I33" s="267"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3148,14 +3148,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="213" t="s">
+      <c r="E35" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="215"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="234"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3210,26 +3210,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3246,6 +3226,26 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -3323,8 +3323,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3339,9 +3339,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3363,83 +3363,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3469,11 +3469,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3486,11 +3486,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3503,11 +3503,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3520,11 +3520,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3537,11 +3537,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3554,11 +3554,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3658,80 +3658,80 @@
       <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="182" t="s">
+      <c r="D29" s="182"/>
+      <c r="E29" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186">
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188">
         <v>0.2</v>
       </c>
-      <c r="J29" s="189"/>
-      <c r="K29" s="191">
+      <c r="J29" s="191"/>
+      <c r="K29" s="193">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="A30" s="180"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="193" t="s">
+      <c r="D30" s="182"/>
+      <c r="E30" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="194"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="191"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181" t="s">
+      <c r="A31" s="181"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="193" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="192"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3742,18 +3742,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="161"/>
-      <c r="B33" s="169" t="s">
+      <c r="A33" s="181"/>
+      <c r="B33" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172" t="s">
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="173"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="168"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="198"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3767,16 +3767,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="159"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3863,24 +3863,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3897,14 +3887,24 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
@@ -3977,8 +3977,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3993,9 +3993,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4017,83 +4017,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4119,82 +4119,82 @@
       <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="232" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186">
+      <c r="F15" s="220"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188">
         <v>0.2</v>
       </c>
-      <c r="J15" s="189">
-        <v>0</v>
-      </c>
-      <c r="K15" s="191">
+      <c r="J15" s="191">
+        <v>0</v>
+      </c>
+      <c r="K15" s="193">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="239"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="243" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="244"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="241"/>
-      <c r="E17" s="243" t="s">
+      <c r="D17" s="218"/>
+      <c r="E17" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="244"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="192"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="232" t="s">
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="233"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4208,18 +4208,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="228"/>
-      <c r="B19" s="234" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="237" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="238"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="168"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="198"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4235,16 +4235,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4370,88 +4370,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="218"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="219"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="221"/>
+      <c r="A30" s="238"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="240"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="219"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="221"/>
+      <c r="A31" s="238"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="239"/>
+      <c r="K31" s="240"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="219"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="240"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="243"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="225" t="s">
+      <c r="A35" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="225"/>
-      <c r="H35" s="226">
+      <c r="B35" s="244"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="245">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="226"/>
+      <c r="I35" s="245"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4461,20 +4461,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="226">
+      <c r="B36" s="244"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="245">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="226"/>
+      <c r="I36" s="245"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4496,14 +4496,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="213" t="s">
+      <c r="E38" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="215"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4571,18 +4571,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4599,20 +4601,18 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
@@ -4693,9 +4693,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4710,10 +4710,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4735,87 +4735,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="210"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="201"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="202"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="201"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="201"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4842,84 +4842,84 @@
       <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="232" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="242"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186">
+      <c r="G15" s="220"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188">
         <v>0.2</v>
       </c>
-      <c r="K15" s="189"/>
-      <c r="L15" s="191">
+      <c r="K15" s="191"/>
+      <c r="L15" s="193">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="239"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="243" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="244"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="191"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="193"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="241"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="243" t="s">
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="244"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="192"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="194"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="230"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="231"/>
-      <c r="F18" s="232" t="s">
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="233"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="168"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4931,19 +4931,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="228"/>
-      <c r="B19" s="234" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="237" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="238"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="168"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4957,17 +4957,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -4985,90 +4985,90 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="216" t="s">
+      <c r="A23" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="217"/>
-      <c r="L23" s="218"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="236"/>
+      <c r="L23" s="237"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="219"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="221"/>
+      <c r="A24" s="238"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="239"/>
+      <c r="G24" s="239"/>
+      <c r="H24" s="239"/>
+      <c r="I24" s="239"/>
+      <c r="J24" s="239"/>
+      <c r="K24" s="239"/>
+      <c r="L24" s="240"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="219"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="220"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="220"/>
-      <c r="I25" s="220"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="221"/>
+      <c r="A25" s="238"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="239"/>
+      <c r="G25" s="239"/>
+      <c r="H25" s="239"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="240"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="219"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="221"/>
+      <c r="A26" s="238"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="239"/>
+      <c r="G26" s="239"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="239"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="239"/>
+      <c r="L26" s="240"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="222"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="223"/>
-      <c r="L27" s="224"/>
+      <c r="A27" s="241"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
+      <c r="K27" s="242"/>
+      <c r="L27" s="243"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="225" t="s">
+      <c r="A29" s="244" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="225"/>
-      <c r="C29" s="225"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="245"/>
-      <c r="J29" s="245"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="246"/>
       <c r="K29" s="140" t="s">
         <v>45</v>
       </c>
@@ -5078,18 +5078,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="225" t="s">
+      <c r="A30" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="245"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="244"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="246"/>
       <c r="K30" s="42" t="s">
         <v>45</v>
       </c>
@@ -5099,18 +5099,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="225" t="s">
+      <c r="A31" s="244" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="225"/>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="246"/>
       <c r="K31" s="42" t="s">
         <v>100</v>
       </c>
@@ -5120,18 +5120,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="225" t="s">
+      <c r="A32" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="245"/>
-      <c r="J32" s="245"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
       <c r="K32" s="42" t="s">
         <v>47</v>
       </c>
@@ -5141,21 +5141,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="225" t="s">
+      <c r="A33" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="226">
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="245">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="226"/>
+      <c r="J33" s="245"/>
       <c r="K33" s="42" t="s">
         <v>100</v>
       </c>
@@ -5177,14 +5177,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="213" t="s">
+      <c r="F35" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="215"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="233"/>
+      <c r="K35" s="234"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5275,26 +5275,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5311,18 +5303,26 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
@@ -5397,8 +5397,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5413,9 +5413,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5437,83 +5437,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5543,11 +5543,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5560,11 +5560,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5577,11 +5577,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5594,11 +5594,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5611,11 +5611,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5628,11 +5628,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5732,80 +5732,80 @@
       <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="182" t="s">
+      <c r="D29" s="182"/>
+      <c r="E29" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186">
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188">
         <v>0.2</v>
       </c>
-      <c r="J29" s="189"/>
-      <c r="K29" s="191">
+      <c r="J29" s="191"/>
+      <c r="K29" s="193">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180" t="s">
+      <c r="A30" s="180"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="193" t="s">
+      <c r="D30" s="182"/>
+      <c r="E30" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="194"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="191"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
-      <c r="B31" s="181"/>
-      <c r="C31" s="181" t="s">
+      <c r="A31" s="181"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="181"/>
-      <c r="E31" s="193" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="192"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="162" t="s">
+      <c r="B32" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5816,18 +5816,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="161"/>
-      <c r="B33" s="169" t="s">
+      <c r="A33" s="181"/>
+      <c r="B33" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172" t="s">
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="173"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="168"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="198"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5841,16 +5841,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="157" t="s">
+      <c r="B34" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="159"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5937,14 +5937,25 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5960,25 +5971,14 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
@@ -6056,8 +6056,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6072,9 +6072,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6096,83 +6096,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="201"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="201"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6198,82 +6198,82 @@
       <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="227" t="s">
+      <c r="A15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="232" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186">
+      <c r="F15" s="220"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188">
         <v>0.2</v>
       </c>
-      <c r="J15" s="189">
-        <v>0</v>
-      </c>
-      <c r="K15" s="191">
+      <c r="J15" s="191">
+        <v>0</v>
+      </c>
+      <c r="K15" s="193">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="239"/>
-      <c r="B16" s="240"/>
-      <c r="C16" s="240" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="243" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="244"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="241" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="241"/>
-      <c r="E17" s="243" t="s">
+      <c r="D17" s="218"/>
+      <c r="E17" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="244"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="192"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="232" t="s">
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="233"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6287,18 +6287,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="228"/>
-      <c r="B19" s="234" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="237" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="238"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="168"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="198"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6314,16 +6314,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="159"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6449,88 +6449,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="217"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="218"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="219"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="221"/>
+      <c r="A30" s="238"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="240"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="219"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="220"/>
-      <c r="I31" s="220"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="221"/>
+      <c r="A31" s="238"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="239"/>
+      <c r="K31" s="240"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="219"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="240"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="243"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="225" t="s">
+      <c r="A35" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="225"/>
-      <c r="H35" s="226">
+      <c r="B35" s="244"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="245">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="226"/>
+      <c r="I35" s="245"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6540,20 +6540,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="225" t="s">
+      <c r="A36" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="226">
+      <c r="B36" s="244"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="245">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="226"/>
+      <c r="I36" s="245"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6575,14 +6575,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="213" t="s">
+      <c r="E38" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="215"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6650,18 +6650,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6678,20 +6680,18 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
@@ -6772,9 +6772,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6789,10 +6789,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6806,10 +6806,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6832,30 +6832,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7002,11 +7002,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="253"/>
-      <c r="I23" s="254"/>
+      <c r="G23" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="250"/>
+      <c r="I23" s="251"/>
       <c r="J23" s="176" t="s">
         <v>7</v>
       </c>
@@ -7014,84 +7014,84 @@
       <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="182" t="s">
+      <c r="D24" s="182"/>
+      <c r="E24" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="255"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="258"/>
-      <c r="J24" s="186">
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="188">
         <v>0.2</v>
       </c>
-      <c r="K24" s="189"/>
-      <c r="L24" s="192">
+      <c r="K24" s="191"/>
+      <c r="L24" s="194">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180" t="s">
+      <c r="A25" s="180"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="193" t="s">
+      <c r="D25" s="182"/>
+      <c r="E25" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="259"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="256"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181" t="s">
+      <c r="A26" s="181"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="193" t="s">
+      <c r="D26" s="183"/>
+      <c r="E26" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="260"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="257"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165" t="s">
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="248"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7103,19 +7103,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="161"/>
-      <c r="B28" s="169" t="s">
+      <c r="A28" s="181"/>
+      <c r="B28" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="173"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="251"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7129,16 +7129,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7229,12 +7229,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7251,14 +7253,12 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -7285,7 +7285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
@@ -7335,9 +7335,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7352,10 +7352,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7369,10 +7369,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7393,7 +7393,7 @@
         <v>73</v>
       </c>
       <c r="J7" s="137"/>
-      <c r="K7" s="269"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -7401,30 +7401,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7450,82 +7450,82 @@
       <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="227" t="s">
+      <c r="A14" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="240" t="s">
+      <c r="C14" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="240"/>
-      <c r="E14" s="232" t="s">
+      <c r="D14" s="217"/>
+      <c r="E14" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="242"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186">
+      <c r="F14" s="220"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188">
         <v>0.2</v>
       </c>
-      <c r="J14" s="189">
-        <v>0</v>
-      </c>
-      <c r="K14" s="191">
+      <c r="J14" s="191">
+        <v>0</v>
+      </c>
+      <c r="K14" s="193">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="239"/>
-      <c r="B15" s="240"/>
-      <c r="C15" s="240" t="s">
+      <c r="A15" s="215"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="240"/>
-      <c r="E15" s="243" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="244"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="191"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="228"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241" t="s">
+      <c r="A16" s="216"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="243" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="244"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="227" t="s">
+      <c r="A17" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
-      <c r="E17" s="232" t="s">
+      <c r="C17" s="224"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="233"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="168"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7539,18 +7539,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="228"/>
-      <c r="B18" s="234" t="s">
+      <c r="A18" s="216"/>
+      <c r="B18" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="237" t="s">
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="238"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7566,16 +7566,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="159"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7661,88 +7661,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="217"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="218"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="219"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="221"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="240"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="219"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="221"/>
+      <c r="A28" s="238"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="219"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="220"/>
-      <c r="I29" s="220"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="222"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="243"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="225" t="s">
+      <c r="A32" s="244" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="225"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="263">
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="266">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="263"/>
+      <c r="I32" s="266"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7752,20 +7752,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="225" t="s">
+      <c r="A33" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="226">
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="245">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="264"/>
+      <c r="I33" s="267"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7787,14 +7787,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="213" t="s">
+      <c r="E35" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="215"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="234"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7849,12 +7849,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7871,20 +7879,12 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="K19">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7905,7 +7905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J29" sqref="J29:J33"/>
     </sheetView>
   </sheetViews>
@@ -7954,9 +7954,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7971,10 +7971,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -7988,10 +7988,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8014,30 +8014,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="261"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="261"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="261"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8184,11 +8184,11 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="253"/>
-      <c r="I23" s="254"/>
+      <c r="G23" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="250"/>
+      <c r="I23" s="251"/>
       <c r="J23" s="176" t="s">
         <v>7</v>
       </c>
@@ -8196,84 +8196,84 @@
       <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="182" t="s">
+      <c r="D24" s="182"/>
+      <c r="E24" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="255"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="258"/>
-      <c r="J24" s="186">
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="188">
         <v>0.2</v>
       </c>
-      <c r="K24" s="267"/>
-      <c r="L24" s="192">
+      <c r="K24" s="268"/>
+      <c r="L24" s="194">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180" t="s">
+      <c r="A25" s="180"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="193" t="s">
+      <c r="D25" s="182"/>
+      <c r="E25" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="267"/>
-      <c r="L25" s="259"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="268"/>
+      <c r="L25" s="256"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161"/>
-      <c r="B26" s="181"/>
-      <c r="C26" s="181" t="s">
+      <c r="A26" s="181"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="193" t="s">
+      <c r="D26" s="183"/>
+      <c r="E26" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="194"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="260"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="269"/>
+      <c r="L26" s="257"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165" t="s">
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="248"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8285,19 +8285,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="161"/>
-      <c r="B28" s="169" t="s">
+      <c r="A28" s="181"/>
+      <c r="B28" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="173"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="251"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8311,16 +8311,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="159"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8411,23 +8411,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8441,6 +8424,23 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EC5295-B2E6-40CA-983B-E1B52C313BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0345B537-7216-4AA8-9D96-7A442AE1A8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="844" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -2646,10 +2646,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3264,7 +3267,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
@@ -3280,7 +3283,7 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A38" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J29" sqref="J29:J33"/>
     </sheetView>
   </sheetViews>
@@ -3929,10 +3932,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4631,7 +4637,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
@@ -5352,10 +5358,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6008,10 +6017,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6710,7 +6722,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0345B537-7216-4AA8-9D96-7A442AE1A8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40857ABD-2551-4C9E-8EFD-0FB3FEA5A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="844" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Start nr</t>
   </si>
   <si>
-    <t xml:space="preserve">Lätt klass individuell </t>
-  </si>
-  <si>
     <t xml:space="preserve">Grundövningar </t>
   </si>
   <si>
@@ -521,18 +518,12 @@
     <t>Lättklass ind är en individuell klass där voltigören gör fem stycken statiska övningar</t>
   </si>
   <si>
-    <t>Skritt klass lag</t>
-  </si>
-  <si>
     <t>Skritt klass lag typ 2</t>
   </si>
   <si>
     <t>Lätt klass lag typ 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Skrittklass individuell </t>
-  </si>
-  <si>
     <t xml:space="preserve">Skritt individuell </t>
   </si>
   <si>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t>Alla protokollen i denna fil hör till lättklass och skrittklass.</t>
+  </si>
+  <si>
+    <t>Skritt klass lag 0*</t>
+  </si>
+  <si>
+    <t>Lätt klass individuell 0*</t>
+  </si>
+  <si>
+    <t>Skrittklass individuell 0*</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1522,163 @@
     <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,177 +1688,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -1714,142 +1783,73 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2436,191 +2436,191 @@
   <sheetData>
     <row r="1" spans="1:1" s="125" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="116" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="116" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="116" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="124" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="116" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="124" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="124" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="124" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="124" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="116" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="115" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A22" s="115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="124" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="126"/>
       <c r="B23" s="126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="126" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="C24" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="123" t="s">
-        <v>113</v>
-      </c>
       <c r="D24" s="123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="123" t="s">
-        <v>115</v>
-      </c>
       <c r="D25" s="123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="C26" s="123" t="s">
         <v>117</v>
-      </c>
-      <c r="C26" s="123" t="s">
-        <v>118</v>
       </c>
       <c r="D26" s="123"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="123" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B27" s="123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C27" s="123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="C28" s="123" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="123" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="123"/>
     </row>
     <row r="30" spans="1:4" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="116" t="s">
         <v>32</v>
@@ -2631,7 +2631,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2674,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>75</v>
@@ -2701,9 +2701,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2718,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2735,10 +2735,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2767,30 +2767,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,93 +2805,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="176" t="s">
+      <c r="G13" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="176"/>
+      <c r="I13" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="217"/>
-      <c r="E14" s="219" t="s">
+      <c r="D14" s="241"/>
+      <c r="E14" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188">
+      <c r="F14" s="243"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187">
         <v>0.2</v>
       </c>
-      <c r="J14" s="191">
-        <v>0</v>
-      </c>
-      <c r="K14" s="193">
+      <c r="J14" s="190">
+        <v>0</v>
+      </c>
+      <c r="K14" s="192">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="215"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217" t="s">
+      <c r="A15" s="240"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="221" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="193"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="216"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218" t="s">
+      <c r="A16" s="229"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="242"/>
+      <c r="E16" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="194"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="223" t="s">
+      <c r="B17" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="224"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="219" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="226"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="198"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2905,18 +2905,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="216"/>
-      <c r="B18" s="227" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="230" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="231"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2932,16 +2932,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -2958,7 +2958,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2981,13 +2981,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="155">
         <v>0</v>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="121">
         <f>G23/5</f>
@@ -3025,88 +3025,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="222"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="238"/>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240"/>
+      <c r="A28" s="220"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="222"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="238"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="222"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="241"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="243"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="225"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="244" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="266">
+      <c r="A32" s="226" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="226"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="264">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="264"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3116,20 +3116,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="244" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="244"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245">
+      <c r="A33" s="226" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="227">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="267"/>
+      <c r="I33" s="265"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3151,14 +3151,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="232" t="s">
+      <c r="E35" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="234"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="216"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3213,6 +3213,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3229,26 +3249,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -3283,8 +3283,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+    <sheetView showZeros="0" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3299,7 +3299,7 @@
     <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
@@ -3326,8 +3326,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3342,9 +3342,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3366,83 +3366,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3472,11 +3472,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3489,11 +3489,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="200"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3506,11 +3506,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="200"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3523,11 +3523,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3540,11 +3540,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3557,11 +3557,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
+      <c r="A20" s="198" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="199"/>
+      <c r="C20" s="200"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3597,7 +3597,7 @@
       <c r="A23" s="15"/>
       <c r="E23" s="16"/>
       <c r="G23" s="143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H23" s="142"/>
       <c r="I23" s="1" t="s">
@@ -3650,91 +3650,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176" t="s">
+      <c r="G28" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="176"/>
+      <c r="I28" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="184" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188">
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187">
         <v>0.2</v>
       </c>
-      <c r="J29" s="191"/>
-      <c r="K29" s="193">
+      <c r="J29" s="190"/>
+      <c r="K29" s="192">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="180"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="181"/>
+      <c r="C30" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="195" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="196"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="193"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="192"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="195" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="196"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="194"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="204" t="s">
+      <c r="B32" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="198"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3745,18 +3745,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="181"/>
-      <c r="B33" s="209" t="s">
+      <c r="A33" s="162"/>
+      <c r="B33" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212" t="s">
+      <c r="C33" s="171"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="198"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3770,16 +3770,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="201" t="s">
+      <c r="B34" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="203"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3866,14 +3866,24 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3890,24 +3900,14 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
@@ -3956,7 +3956,7 @@
     <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
@@ -3983,8 +3983,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3999,9 +3999,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4023,83 +4023,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4114,93 +4114,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="176" t="s">
+      <c r="G14" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="176"/>
+      <c r="I14" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="219" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188">
+      <c r="F15" s="243"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187">
         <v>0.2</v>
       </c>
-      <c r="J15" s="191">
-        <v>0</v>
-      </c>
-      <c r="K15" s="193">
+      <c r="J15" s="190">
+        <v>0</v>
+      </c>
+      <c r="K15" s="192">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="221" t="s">
+      <c r="D17" s="242"/>
+      <c r="E17" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="194"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="219" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4214,18 +4214,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="216"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="231"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="198"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="169"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4241,16 +4241,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="147"/>
       <c r="C24" s="148"/>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="148"/>
@@ -4323,10 +4323,10 @@
       <c r="F25" s="148"/>
       <c r="G25" s="149"/>
       <c r="H25" s="118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="35"/>
     </row>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G27" s="151"/>
       <c r="H27" s="150">
@@ -4376,88 +4376,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="238"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
+      <c r="K30" s="222"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="238"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
-      <c r="K31" s="240"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="238"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="239"/>
-      <c r="G32" s="239"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="239"/>
-      <c r="K32" s="240"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="222"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="241"/>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="243"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="225"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="244" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="244"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="245">
+      <c r="A35" s="226" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="227">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="245"/>
+      <c r="I35" s="227"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4467,20 +4467,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="244" t="s">
+      <c r="A36" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="244"/>
-      <c r="C36" s="244"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="245">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="227">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="245"/>
+      <c r="I36" s="227"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4502,14 +4502,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="232" t="s">
+      <c r="E38" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4577,20 +4577,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4607,18 +4605,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
@@ -4672,7 +4672,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="7" t="s">
@@ -4699,9 +4699,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4716,10 +4716,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4741,87 +4741,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="163"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4837,95 +4837,95 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176" t="s">
+      <c r="H14" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="179"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="219" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="220"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="188">
+      <c r="G15" s="243"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187">
         <v>0.2</v>
       </c>
-      <c r="K15" s="191"/>
-      <c r="L15" s="193">
+      <c r="K15" s="190"/>
+      <c r="L15" s="192">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="221" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="222"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="193"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="192"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="221" t="s">
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="222"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="194"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="193"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="219" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="226"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4937,19 +4937,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="216"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="230" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="231"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4963,17 +4963,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -4991,88 +4991,88 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235" t="s">
+      <c r="A23" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="236"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="236"/>
-      <c r="L23" s="237"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="219"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="238"/>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="240"/>
+      <c r="A24" s="220"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="222"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="238"/>
-      <c r="B25" s="239"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="239"/>
-      <c r="G25" s="239"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="240"/>
+      <c r="A25" s="220"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221"/>
+      <c r="L25" s="222"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="238"/>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="239"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="240"/>
+      <c r="A26" s="220"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="222"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="241"/>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="242"/>
-      <c r="K27" s="242"/>
-      <c r="L27" s="243"/>
+      <c r="A27" s="223"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="225"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="244" t="s">
+      <c r="A29" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="244"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
       <c r="I29" s="246"/>
       <c r="J29" s="246"/>
       <c r="K29" s="140" t="s">
@@ -5084,16 +5084,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="244" t="s">
+      <c r="A30" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="244"/>
-      <c r="C30" s="244"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
       <c r="I30" s="246"/>
       <c r="J30" s="246"/>
       <c r="K30" s="42" t="s">
@@ -5105,20 +5105,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="244" t="s">
+      <c r="A31" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="244"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
       <c r="I31" s="246"/>
       <c r="J31" s="246"/>
       <c r="K31" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L31" s="128">
         <f>I31*2.5</f>
@@ -5126,16 +5126,16 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="244" t="s">
+      <c r="A32" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
       <c r="I32" s="246"/>
       <c r="J32" s="246"/>
       <c r="K32" s="42" t="s">
@@ -5147,23 +5147,23 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="244" t="s">
+      <c r="A33" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="244"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="245">
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="227">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="245"/>
+      <c r="J33" s="227"/>
       <c r="K33" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L33" s="128">
         <f>I33*2.5</f>
@@ -5183,14 +5183,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="232" t="s">
+      <c r="F35" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="234"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="216"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5281,18 +5281,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5309,26 +5317,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
@@ -5406,8 +5406,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5422,9 +5422,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5446,83 +5446,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5552,11 +5552,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5569,11 +5569,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="200"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5586,11 +5586,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="200"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5603,11 +5603,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5620,11 +5620,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5637,11 +5637,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
+      <c r="A20" s="198" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="199"/>
+      <c r="C20" s="200"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5677,7 +5677,7 @@
       <c r="A23" s="15"/>
       <c r="E23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H23" s="142"/>
       <c r="I23" s="1" t="s">
@@ -5730,91 +5730,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176" t="s">
+      <c r="G28" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="176"/>
+      <c r="I28" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="184" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188">
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187">
         <v>0.2</v>
       </c>
-      <c r="J29" s="191"/>
-      <c r="K29" s="193">
+      <c r="J29" s="190"/>
+      <c r="K29" s="192">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="180"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="181"/>
+      <c r="C30" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="195" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="196"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="193"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="192"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="195" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="196"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="194"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="204" t="s">
+      <c r="B32" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="198"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5825,18 +5825,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="181"/>
-      <c r="B33" s="209" t="s">
+      <c r="A33" s="162"/>
+      <c r="B33" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212" t="s">
+      <c r="C33" s="171"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="198"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5850,16 +5850,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="201" t="s">
+      <c r="B34" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="203"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5946,25 +5946,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5980,14 +5969,25 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
@@ -6041,7 +6041,7 @@
     <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
@@ -6068,8 +6068,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6084,9 +6084,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6108,83 +6108,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6199,93 +6199,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="176" t="s">
+      <c r="G14" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="176"/>
+      <c r="I14" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="219" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188">
+      <c r="F15" s="243"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187">
         <v>0.2</v>
       </c>
-      <c r="J15" s="191">
-        <v>0</v>
-      </c>
-      <c r="K15" s="193">
+      <c r="J15" s="190">
+        <v>0</v>
+      </c>
+      <c r="K15" s="192">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="221" t="s">
+      <c r="D17" s="242"/>
+      <c r="E17" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="194"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="219" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6299,18 +6299,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="216"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="231"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="198"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="169"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6326,16 +6326,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="147"/>
       <c r="C24" s="148"/>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="147"/>
       <c r="C25" s="148"/>
@@ -6408,10 +6408,10 @@
       <c r="F25" s="148"/>
       <c r="G25" s="149"/>
       <c r="H25" s="118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="35"/>
     </row>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G27" s="151"/>
       <c r="H27" s="150">
@@ -6461,88 +6461,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="238"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
+      <c r="K30" s="222"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="238"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
-      <c r="K31" s="240"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="238"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="239"/>
-      <c r="G32" s="239"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="239"/>
-      <c r="K32" s="240"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="222"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="241"/>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="243"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="225"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="244" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="244"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="245">
+      <c r="A35" s="226" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="227">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="245"/>
+      <c r="I35" s="227"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6552,20 +6552,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="244" t="s">
+      <c r="A36" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="244"/>
-      <c r="C36" s="244"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="245">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="227">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="245"/>
+      <c r="I36" s="227"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6587,14 +6587,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="232" t="s">
+      <c r="E38" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6662,20 +6662,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6692,18 +6690,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
@@ -6735,8 +6735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6757,7 +6757,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="96" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="H2" s="92"/>
       <c r="I2" s="91" t="s">
@@ -6769,7 +6769,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="92"/>
       <c r="I3" s="91" t="s">
@@ -6784,9 +6784,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="248"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6801,10 +6801,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6818,10 +6818,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6844,30 +6844,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -7014,96 +7014,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="250"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="176" t="s">
+      <c r="G23" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="188">
+      <c r="F24" s="256"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="187">
         <v>0.2</v>
       </c>
-      <c r="K24" s="191"/>
-      <c r="L24" s="194">
+      <c r="K24" s="190"/>
+      <c r="L24" s="193">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="180"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182" t="s">
+      <c r="B25" s="181"/>
+      <c r="C25" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="195" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="256"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="260"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="195" t="s">
+      <c r="A26" s="162"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="182"/>
+      <c r="E26" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="257"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="261"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7115,19 +7115,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="181"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="162"/>
+      <c r="B28" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="212" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="213"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="260"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="252"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7141,16 +7141,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="201" t="s">
+      <c r="B29" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="203"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7186,7 +7186,7 @@
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="58"/>
       <c r="L32" s="51">
@@ -7241,14 +7241,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7265,12 +7263,14 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -7320,7 +7320,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="106" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>75</v>
@@ -7347,9 +7347,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7364,10 +7364,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7381,10 +7381,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7413,30 +7413,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,93 +7451,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="176" t="s">
+      <c r="G13" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="176"/>
+      <c r="I13" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="217"/>
-      <c r="E14" s="219" t="s">
+      <c r="D14" s="241"/>
+      <c r="E14" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188">
+      <c r="F14" s="243"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187">
         <v>0.2</v>
       </c>
-      <c r="J14" s="191">
-        <v>0</v>
-      </c>
-      <c r="K14" s="193">
+      <c r="J14" s="190">
+        <v>0</v>
+      </c>
+      <c r="K14" s="192">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="215"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217" t="s">
+      <c r="A15" s="240"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="221" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="193"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="216"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218" t="s">
+      <c r="A16" s="229"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="242"/>
+      <c r="E16" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="194"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="223" t="s">
+      <c r="B17" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="224"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="219" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="226"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="198"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7551,18 +7551,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="216"/>
-      <c r="B18" s="227" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="230" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="231"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7578,16 +7578,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -7629,13 +7629,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="155">
         <v>0</v>
@@ -7660,10 +7660,10 @@
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="121">
         <f>G23/5</f>
@@ -7673,88 +7673,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="222"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="238"/>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240"/>
+      <c r="A28" s="220"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="222"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="238"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="222"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="241"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="243"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="225"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="244" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="266">
+      <c r="A32" s="226" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="226"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="264">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="264"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7764,20 +7764,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="244" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="244"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245">
+      <c r="A33" s="226" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="227">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="267"/>
+      <c r="I33" s="265"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7799,14 +7799,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="232" t="s">
+      <c r="E35" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="234"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="216"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7861,20 +7861,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7891,12 +7883,20 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="K19">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7917,8 +7917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -7939,7 +7939,7 @@
     <row r="1" spans="1:12" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="96" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="H2" s="92"/>
       <c r="I2" s="91" t="s">
@@ -7951,7 +7951,7 @@
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="92"/>
       <c r="I3" s="91" t="s">
@@ -7966,9 +7966,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="248"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7983,10 +7983,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8000,10 +8000,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8026,30 +8026,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -8196,96 +8196,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="250"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="176" t="s">
+      <c r="G23" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="188">
+      <c r="F24" s="256"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="187">
         <v>0.2</v>
       </c>
       <c r="K24" s="268"/>
-      <c r="L24" s="194">
+      <c r="L24" s="193">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="180"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182" t="s">
+      <c r="B25" s="181"/>
+      <c r="C25" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="195" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="189"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="188"/>
       <c r="K25" s="268"/>
-      <c r="L25" s="256"/>
+      <c r="L25" s="260"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="195" t="s">
+      <c r="A26" s="162"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="182"/>
+      <c r="E26" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="190"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="189"/>
       <c r="K26" s="269"/>
-      <c r="L26" s="257"/>
+      <c r="L26" s="261"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8297,19 +8297,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="181"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="162"/>
+      <c r="B28" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="212" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="213"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="260"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="252"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8323,16 +8323,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="201" t="s">
+      <c r="B29" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="203"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8368,7 +8368,7 @@
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="58"/>
       <c r="L32" s="51">
@@ -8423,6 +8423,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8436,23 +8453,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40857ABD-2551-4C9E-8EFD-0FB3FEA5A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846B5DF-92FD-41A1-87B0-71C9956A6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="8820" windowWidth="29040" windowHeight="17640" tabRatio="844" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -1522,73 +1522,72 @@
     <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,55 +1637,110 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1729,65 +1783,53 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,46 +1839,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1844,12 +1850,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2651,7 +2651,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
@@ -2701,9 +2701,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2718,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2735,10 +2735,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2767,30 +2767,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="267"/>
-      <c r="D8" s="267"/>
-      <c r="E8" s="267"/>
-      <c r="F8" s="267"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,93 +2805,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="177" t="s">
+      <c r="G13" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="175"/>
+      <c r="I13" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="228" t="s">
+      <c r="A14" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="241" t="s">
+      <c r="C14" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="241"/>
-      <c r="E14" s="233" t="s">
+      <c r="D14" s="217"/>
+      <c r="E14" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="243"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187">
+      <c r="F14" s="220"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188">
         <v>0.2</v>
       </c>
-      <c r="J14" s="190">
-        <v>0</v>
-      </c>
-      <c r="K14" s="192">
+      <c r="J14" s="191">
+        <v>0</v>
+      </c>
+      <c r="K14" s="193">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="240"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241" t="s">
+      <c r="A15" s="215"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="244" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="245"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="192"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="229"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242" t="s">
+      <c r="A16" s="216"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="244" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="245"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="233" t="s">
+      <c r="C17" s="224"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="234"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="169"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2905,18 +2905,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="229"/>
-      <c r="B18" s="235" t="s">
+      <c r="A18" s="216"/>
+      <c r="B18" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="238" t="s">
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="239"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2932,16 +2932,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3025,88 +3025,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="219"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="220"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="222"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="240"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="220"/>
-      <c r="B28" s="221"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="222"/>
+      <c r="A28" s="238"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="220"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="222"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="223"/>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="225"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="243"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="226" t="s">
+      <c r="A32" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="226"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="264">
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="266">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="264"/>
+      <c r="I32" s="266"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3116,20 +3116,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="226" t="s">
+      <c r="A33" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="227">
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="245">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="265"/>
+      <c r="I33" s="267"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3151,14 +3151,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="214" t="s">
+      <c r="E35" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="216"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="234"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3213,26 +3213,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3249,6 +3229,26 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -3269,7 +3269,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LÄTTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -3283,8 +3283,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3326,8 +3326,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3342,9 +3342,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>14</v>
@@ -3363,86 +3363,86 @@
     </row>
     <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="202"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="202"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3472,11 +3472,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="206"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3489,11 +3489,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="200"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3506,11 +3506,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="200"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3523,11 +3523,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3540,11 +3540,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="200"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3557,11 +3557,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198" t="s">
+      <c r="A20" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="200"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3650,91 +3650,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="176"/>
-      <c r="I28" s="177" t="s">
+      <c r="G28" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="183" t="s">
+      <c r="D29" s="182"/>
+      <c r="E29" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="184"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187">
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188">
         <v>0.2</v>
       </c>
-      <c r="J29" s="190"/>
-      <c r="K29" s="192">
+      <c r="J29" s="191"/>
+      <c r="K29" s="193">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="180"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181" t="s">
+      <c r="B30" s="182"/>
+      <c r="C30" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="194" t="s">
+      <c r="D30" s="182"/>
+      <c r="E30" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="195"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="192"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182" t="s">
+      <c r="A31" s="181"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="194" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="195"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="193"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="169"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3745,18 +3745,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="162"/>
-      <c r="B33" s="170" t="s">
+      <c r="A33" s="181"/>
+      <c r="B33" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="171"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173" t="s">
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="198"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3770,16 +3770,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="158" t="s">
+      <c r="B34" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3866,24 +3866,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3900,14 +3890,24 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
@@ -3938,7 +3938,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3983,8 +3983,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3999,9 +3999,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>14</v>
@@ -4020,86 +4020,86 @@
     </row>
     <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="202"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="202"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4114,93 +4114,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="176"/>
-      <c r="I14" s="177" t="s">
+      <c r="G14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="228" t="s">
+      <c r="A15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="233" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187">
+      <c r="F15" s="220"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188">
         <v>0.2</v>
       </c>
-      <c r="J15" s="190">
-        <v>0</v>
-      </c>
-      <c r="K15" s="192">
+      <c r="J15" s="191">
+        <v>0</v>
+      </c>
+      <c r="K15" s="193">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="240"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="244" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="245"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="229"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="244" t="s">
+      <c r="D17" s="218"/>
+      <c r="E17" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="245"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="193"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233" t="s">
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="234"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4214,18 +4214,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="229"/>
-      <c r="B19" s="235" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="238" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="239"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="169"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="198"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4241,16 +4241,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4376,88 +4376,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="217" t="s">
+      <c r="A29" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="219"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="220"/>
-      <c r="B30" s="221"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="222"/>
+      <c r="A30" s="238"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="240"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="220"/>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="222"/>
+      <c r="A31" s="238"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="239"/>
+      <c r="K31" s="240"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="220"/>
-      <c r="B32" s="221"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="222"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="240"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="223"/>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="225"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="243"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="226" t="s">
+      <c r="A35" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
-      <c r="H35" s="227">
+      <c r="B35" s="244"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="245">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="227"/>
+      <c r="I35" s="245"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4467,20 +4467,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="226"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="227">
+      <c r="B36" s="244"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="245">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="227"/>
+      <c r="I36" s="245"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4502,14 +4502,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="214" t="s">
+      <c r="E38" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="216"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4577,18 +4577,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4605,20 +4607,18 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
@@ -4651,7 +4651,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:J33"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4699,9 +4699,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4716,10 +4716,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>14</v>
@@ -4738,90 +4738,90 @@
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="211"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="201"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="202"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="202"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4837,95 +4837,95 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177" t="s">
+      <c r="H14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="178"/>
-      <c r="L14" s="179"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="228" t="s">
+      <c r="A15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="233" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="243"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187">
+      <c r="G15" s="220"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="188">
         <v>0.2</v>
       </c>
-      <c r="K15" s="190"/>
-      <c r="L15" s="192">
+      <c r="K15" s="191"/>
+      <c r="L15" s="193">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="240"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="244" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="245"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="192"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="193"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="229"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="244" t="s">
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="245"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="193"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="194"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="231"/>
-      <c r="D18" s="231"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="233" t="s">
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="234"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="169"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4937,19 +4937,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="229"/>
-      <c r="B19" s="235" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="239"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="169"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4963,17 +4963,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="160"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="203"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -4991,88 +4991,88 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="217" t="s">
+      <c r="A23" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="219"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="236"/>
+      <c r="L23" s="237"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="220"/>
-      <c r="B24" s="221"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="222"/>
+      <c r="A24" s="238"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="239"/>
+      <c r="G24" s="239"/>
+      <c r="H24" s="239"/>
+      <c r="I24" s="239"/>
+      <c r="J24" s="239"/>
+      <c r="K24" s="239"/>
+      <c r="L24" s="240"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="220"/>
-      <c r="B25" s="221"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="222"/>
+      <c r="A25" s="238"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="239"/>
+      <c r="G25" s="239"/>
+      <c r="H25" s="239"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="240"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="220"/>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="222"/>
+      <c r="A26" s="238"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="239"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="239"/>
+      <c r="G26" s="239"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="239"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="239"/>
+      <c r="L26" s="240"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="223"/>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="225"/>
+      <c r="A27" s="241"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
+      <c r="K27" s="242"/>
+      <c r="L27" s="243"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="226" t="s">
+      <c r="A29" s="244" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="226"/>
-      <c r="C29" s="226"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="246"/>
       <c r="J29" s="246"/>
       <c r="K29" s="140" t="s">
@@ -5084,16 +5084,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="226" t="s">
+      <c r="A30" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="226"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="244"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
       <c r="I30" s="246"/>
       <c r="J30" s="246"/>
       <c r="K30" s="42" t="s">
@@ -5105,16 +5105,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="244" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="226"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
       <c r="I31" s="246"/>
       <c r="J31" s="246"/>
       <c r="K31" s="42" t="s">
@@ -5126,16 +5126,16 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="226" t="s">
+      <c r="A32" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="226"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
       <c r="I32" s="246"/>
       <c r="J32" s="246"/>
       <c r="K32" s="42" t="s">
@@ -5147,21 +5147,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="226" t="s">
+      <c r="A33" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="227">
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="245">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="227"/>
+      <c r="J33" s="245"/>
       <c r="K33" s="42" t="s">
         <v>99</v>
       </c>
@@ -5183,14 +5183,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="214" t="s">
+      <c r="F35" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="216"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="233"/>
+      <c r="K35" s="234"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5281,26 +5281,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5317,18 +5309,26 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
@@ -5364,7 +5364,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5406,8 +5406,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5422,9 +5422,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>14</v>
@@ -5443,86 +5443,86 @@
     </row>
     <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="202"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="202"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5552,11 +5552,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="205"/>
-      <c r="C15" s="206"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5569,11 +5569,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="200"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5586,11 +5586,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="200"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5603,11 +5603,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="207" t="s">
+      <c r="A18" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5620,11 +5620,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="200"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5637,11 +5637,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="198" t="s">
+      <c r="A20" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="200"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5730,91 +5730,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="176"/>
-      <c r="I28" s="177" t="s">
+      <c r="G28" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="175"/>
+      <c r="I28" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="181"/>
-      <c r="E29" s="183" t="s">
+      <c r="D29" s="182"/>
+      <c r="E29" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="184"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187">
+      <c r="F29" s="185"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188">
         <v>0.2</v>
       </c>
-      <c r="J29" s="190"/>
-      <c r="K29" s="192">
+      <c r="J29" s="191"/>
+      <c r="K29" s="193">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="180"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="181" t="s">
+      <c r="B30" s="182"/>
+      <c r="C30" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="181"/>
-      <c r="E30" s="194" t="s">
+      <c r="D30" s="182"/>
+      <c r="E30" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="195"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="192"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182" t="s">
+      <c r="A31" s="181"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="194" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="195"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="193"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="199"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="194"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="169"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="198"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5825,18 +5825,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="162"/>
-      <c r="B33" s="170" t="s">
+      <c r="A33" s="181"/>
+      <c r="B33" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="171"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173" t="s">
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="198"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5850,16 +5850,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="158" t="s">
+      <c r="B34" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="202"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="203"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5946,14 +5946,25 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5969,25 +5980,14 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
@@ -6008,7 +6008,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LÄTTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -6023,7 +6023,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6068,8 +6068,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6084,9 +6084,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>14</v>
@@ -6105,86 +6105,86 @@
     </row>
     <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="211"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="164"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="202"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="202"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6199,93 +6199,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="176"/>
-      <c r="I14" s="177" t="s">
+      <c r="G14" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="175"/>
+      <c r="I14" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="228" t="s">
+      <c r="A15" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="233" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187">
+      <c r="F15" s="220"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="188">
         <v>0.2</v>
       </c>
-      <c r="J15" s="190">
-        <v>0</v>
-      </c>
-      <c r="K15" s="192">
+      <c r="J15" s="191">
+        <v>0</v>
+      </c>
+      <c r="K15" s="193">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="240"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="241"/>
-      <c r="E16" s="244" t="s">
+      <c r="D16" s="217"/>
+      <c r="E16" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="245"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="229"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="244" t="s">
+      <c r="D17" s="218"/>
+      <c r="E17" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="245"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="193"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233" t="s">
+      <c r="C18" s="224"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="234"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6299,18 +6299,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="229"/>
-      <c r="B19" s="235" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="238" t="s">
+      <c r="C19" s="228"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="239"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="169"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="198"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6326,16 +6326,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6461,88 +6461,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="217" t="s">
+      <c r="A29" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="219"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="236"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="220"/>
-      <c r="B30" s="221"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="222"/>
+      <c r="A30" s="238"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="239"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="239"/>
+      <c r="K30" s="240"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="220"/>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="221"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="222"/>
+      <c r="A31" s="238"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="239"/>
+      <c r="K31" s="240"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="220"/>
-      <c r="B32" s="221"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="222"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="240"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="223"/>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="225"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="243"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="226" t="s">
+      <c r="A35" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="226"/>
-      <c r="F35" s="226"/>
-      <c r="G35" s="226"/>
-      <c r="H35" s="227">
+      <c r="B35" s="244"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="245">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="227"/>
+      <c r="I35" s="245"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6552,20 +6552,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="226"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="227">
+      <c r="B36" s="244"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="245">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="227"/>
+      <c r="I36" s="245"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6587,14 +6587,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="214" t="s">
+      <c r="E38" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="216"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="234"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6662,18 +6662,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6690,20 +6692,18 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
@@ -6724,7 +6724,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LÄTTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -6784,9 +6784,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6801,10 +6801,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6818,10 +6818,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6844,30 +6844,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7014,96 +7014,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="254"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="177" t="s">
+      <c r="G23" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="250"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="182"/>
+      <c r="E24" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="256"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="187">
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="188">
         <v>0.2</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="193">
+      <c r="K24" s="191"/>
+      <c r="L24" s="194">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="180"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181" t="s">
+      <c r="B25" s="182"/>
+      <c r="C25" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="182"/>
+      <c r="E25" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="195"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="260"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="256"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="162"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="182" t="s">
+      <c r="A26" s="181"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="194" t="s">
+      <c r="D26" s="183"/>
+      <c r="E26" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="261"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="257"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166" t="s">
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="248"/>
-      <c r="I27" s="249"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7115,19 +7115,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="162"/>
-      <c r="B28" s="170" t="s">
+      <c r="A28" s="181"/>
+      <c r="B28" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="252"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7141,16 +7141,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7241,12 +7241,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7263,14 +7265,12 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
@@ -7347,9 +7347,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7364,10 +7364,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7381,10 +7381,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="266"/>
-      <c r="F6" s="266"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7413,30 +7413,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="267"/>
-      <c r="D8" s="267"/>
-      <c r="E8" s="267"/>
-      <c r="F8" s="267"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,93 +7451,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="177" t="s">
+      <c r="G13" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="175"/>
+      <c r="I13" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="228" t="s">
+      <c r="A14" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="241" t="s">
+      <c r="B14" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="241" t="s">
+      <c r="C14" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="241"/>
-      <c r="E14" s="233" t="s">
+      <c r="D14" s="217"/>
+      <c r="E14" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="243"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="187">
+      <c r="F14" s="220"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="188">
         <v>0.2</v>
       </c>
-      <c r="J14" s="190">
-        <v>0</v>
-      </c>
-      <c r="K14" s="192">
+      <c r="J14" s="191">
+        <v>0</v>
+      </c>
+      <c r="K14" s="193">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="240"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241" t="s">
+      <c r="A15" s="215"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="241"/>
-      <c r="E15" s="244" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="245"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="192"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="229"/>
-      <c r="B16" s="242"/>
-      <c r="C16" s="242" t="s">
+      <c r="A16" s="216"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="244" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="221" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="245"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="199"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="230" t="s">
+      <c r="B17" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="233" t="s">
+      <c r="C17" s="224"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="234"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="169"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="198"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7551,18 +7551,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="229"/>
-      <c r="B18" s="235" t="s">
+      <c r="A18" s="216"/>
+      <c r="B18" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="238" t="s">
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="239"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
+      <c r="F18" s="231"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7578,16 +7578,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="202"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7673,88 +7673,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="219"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
+      <c r="E26" s="236"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="220"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="222"/>
+      <c r="A27" s="238"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="239"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="239"/>
+      <c r="G27" s="239"/>
+      <c r="H27" s="239"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="239"/>
+      <c r="K27" s="240"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="220"/>
-      <c r="B28" s="221"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="222"/>
+      <c r="A28" s="238"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="220"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="221"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="222"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="239"/>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="223"/>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="225"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="243"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="226" t="s">
+      <c r="A32" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="226"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="264">
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="266">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="264"/>
+      <c r="I32" s="266"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7764,20 +7764,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="226" t="s">
+      <c r="A33" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="227">
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="245">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="265"/>
+      <c r="I33" s="267"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7799,14 +7799,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="214" t="s">
+      <c r="E35" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="216"/>
+      <c r="F35" s="233"/>
+      <c r="G35" s="233"/>
+      <c r="H35" s="233"/>
+      <c r="I35" s="233"/>
+      <c r="J35" s="234"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7861,12 +7861,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7883,20 +7891,12 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="K19">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7966,9 +7966,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7983,10 +7983,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8000,10 +8000,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8026,30 +8026,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8196,96 +8196,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="254"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="177" t="s">
+      <c r="G23" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="250"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="181" t="s">
+      <c r="C24" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="182"/>
+      <c r="E24" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="256"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="187">
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="188">
         <v>0.2</v>
       </c>
       <c r="K24" s="268"/>
-      <c r="L24" s="193">
+      <c r="L24" s="194">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="180"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181" t="s">
+      <c r="B25" s="182"/>
+      <c r="C25" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="194" t="s">
+      <c r="D25" s="182"/>
+      <c r="E25" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="195"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="188"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="189"/>
       <c r="K25" s="268"/>
-      <c r="L25" s="260"/>
+      <c r="L25" s="256"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="162"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="182" t="s">
+      <c r="A26" s="181"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="194" t="s">
+      <c r="D26" s="183"/>
+      <c r="E26" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="189"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="190"/>
       <c r="K26" s="269"/>
-      <c r="L26" s="261"/>
+      <c r="L26" s="257"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166" t="s">
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="248"/>
-      <c r="I27" s="249"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8297,19 +8297,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="162"/>
-      <c r="B28" s="170" t="s">
+      <c r="A28" s="181"/>
+      <c r="B28" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="174"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="252"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="260"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8323,16 +8323,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="158" t="s">
+      <c r="B29" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8423,23 +8423,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8453,6 +8436,23 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
@@ -8468,7 +8468,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR SKRITTKLASS</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LÄTTKLASS</oddHeader>
     <oddFooter>&amp;R2019-04-07</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846B5DF-92FD-41A1-87B0-71C9956A6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE08FBFE-AD54-4812-81F6-612528749A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -1522,10 +1522,163 @@
     <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,177 +1688,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -1714,142 +1783,73 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1876,16 +1876,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1922,19 +1912,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1950,19 +1940,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1978,19 +1968,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2006,19 +1996,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2034,19 +2024,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2082,6 +2072,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2101,9 +2101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2141,9 +2141,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2176,26 +2176,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2228,26 +2211,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2701,9 +2667,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2718,10 +2684,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2735,10 +2701,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2767,30 +2733,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2805,93 +2771,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="176" t="s">
+      <c r="G13" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="176"/>
+      <c r="I13" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="217"/>
-      <c r="E14" s="219" t="s">
+      <c r="D14" s="241"/>
+      <c r="E14" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188">
+      <c r="F14" s="243"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187">
         <v>0.2</v>
       </c>
-      <c r="J14" s="191">
-        <v>0</v>
-      </c>
-      <c r="K14" s="193">
+      <c r="J14" s="190">
+        <v>0</v>
+      </c>
+      <c r="K14" s="192">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="215"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217" t="s">
+      <c r="A15" s="240"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="221" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="193"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="216"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218" t="s">
+      <c r="A16" s="229"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="242"/>
+      <c r="E16" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="194"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="223" t="s">
+      <c r="B17" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="224"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="219" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="226"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="198"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2905,18 +2871,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="216"/>
-      <c r="B18" s="227" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="230" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="231"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2932,16 +2898,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3025,88 +2991,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="222"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="238"/>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240"/>
+      <c r="A28" s="220"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="222"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="238"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="222"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="241"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="243"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="225"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="244" t="s">
+      <c r="A32" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="266">
+      <c r="B32" s="226"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="264">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="264"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3116,20 +3082,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="244" t="s">
+      <c r="A33" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="244"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245">
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="227">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="267"/>
+      <c r="I33" s="265"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3151,14 +3117,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="232" t="s">
+      <c r="E35" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="234"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="216"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3213,6 +3179,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3229,36 +3215,16 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
-  <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="J14:J19 K14:K21 J22:J24 K25:K40 H32:I33">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I33 J14:J19 K14:K21 J22:J24 K25:K40">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="K14:K21 J22:J24 K25:K40 H33:I33">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
@@ -3283,14 +3249,15 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.73046875" style="11" customWidth="1"/>
-    <col min="3" max="10" width="7.59765625" style="11" customWidth="1"/>
+    <col min="3" max="9" width="7.59765625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.9296875" style="11" customWidth="1"/>
     <col min="11" max="11" width="7.3984375" style="11" customWidth="1"/>
     <col min="12" max="12" width="7.73046875" style="11" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="11"/>
@@ -3326,8 +3293,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3342,9 +3309,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3366,83 +3333,83 @@
         <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3472,102 +3439,174 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="141">
+        <v>0</v>
+      </c>
+      <c r="E15" s="141">
+        <v>0</v>
+      </c>
+      <c r="F15" s="141">
+        <v>0</v>
+      </c>
+      <c r="G15" s="141">
+        <v>0</v>
+      </c>
+      <c r="H15" s="141">
+        <v>0</v>
+      </c>
+      <c r="I15" s="141">
+        <v>0</v>
+      </c>
       <c r="J15" s="12">
         <f t="shared" ref="J15:J20" si="0">SUM(D15:I15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="141">
+        <v>0</v>
+      </c>
+      <c r="E16" s="141">
+        <v>0</v>
+      </c>
+      <c r="F16" s="141">
+        <v>0</v>
+      </c>
+      <c r="G16" s="141">
+        <v>0</v>
+      </c>
+      <c r="H16" s="141">
+        <v>0</v>
+      </c>
+      <c r="I16" s="141">
+        <v>0</v>
+      </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="141">
+        <v>0</v>
+      </c>
+      <c r="E17" s="141">
+        <v>0</v>
+      </c>
+      <c r="F17" s="141">
+        <v>0</v>
+      </c>
+      <c r="G17" s="141">
+        <v>0</v>
+      </c>
+      <c r="H17" s="141">
+        <v>0</v>
+      </c>
+      <c r="I17" s="141">
+        <v>0</v>
+      </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="141">
+        <v>0</v>
+      </c>
+      <c r="E18" s="141">
+        <v>0</v>
+      </c>
+      <c r="F18" s="141">
+        <v>0</v>
+      </c>
+      <c r="G18" s="141">
+        <v>0</v>
+      </c>
+      <c r="H18" s="141">
+        <v>0</v>
+      </c>
+      <c r="I18" s="141">
+        <v>0</v>
+      </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="141">
+        <v>0</v>
+      </c>
+      <c r="E19" s="141">
+        <v>0</v>
+      </c>
+      <c r="F19" s="141">
+        <v>0</v>
+      </c>
+      <c r="G19" s="141">
+        <v>0</v>
+      </c>
+      <c r="H19" s="141">
+        <v>0</v>
+      </c>
+      <c r="I19" s="141">
+        <v>0</v>
+      </c>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="141">
+        <v>0</v>
+      </c>
+      <c r="E20" s="141">
+        <v>0</v>
+      </c>
+      <c r="F20" s="141">
+        <v>0</v>
+      </c>
+      <c r="G20" s="141">
+        <v>0</v>
+      </c>
+      <c r="H20" s="141">
+        <v>0</v>
+      </c>
+      <c r="I20" s="141">
+        <v>0</v>
+      </c>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3599,7 +3638,9 @@
       <c r="G23" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="142"/>
+      <c r="H23" s="142">
+        <v>0</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,91 +3691,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176" t="s">
+      <c r="G28" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="176"/>
+      <c r="I28" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="184" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188">
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187">
         <v>0.2</v>
       </c>
-      <c r="J29" s="191"/>
-      <c r="K29" s="193">
+      <c r="J29" s="190"/>
+      <c r="K29" s="192">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="180"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="181"/>
+      <c r="C30" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="195" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="196"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="193"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="192"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="195" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="196"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="194"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="204" t="s">
+      <c r="B32" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="198"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3745,18 +3786,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="181"/>
-      <c r="B33" s="209" t="s">
+      <c r="A33" s="162"/>
+      <c r="B33" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212" t="s">
+      <c r="C33" s="171"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="198"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3770,16 +3811,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="201" t="s">
+      <c r="B34" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="203"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3866,14 +3907,24 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3890,34 +3941,24 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
-  <conditionalFormatting sqref="K29:K37">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+  <conditionalFormatting sqref="J29:J34 K29:K37">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J34 K29:K37">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="notBetween">
+  <conditionalFormatting sqref="K29:K37">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3983,8 +4024,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3999,9 +4040,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4023,83 +4064,83 @@
         <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4114,93 +4155,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="176" t="s">
+      <c r="G14" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="176"/>
+      <c r="I14" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="219" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188">
+      <c r="F15" s="243"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187">
         <v>0.2</v>
       </c>
-      <c r="J15" s="191">
-        <v>0</v>
-      </c>
-      <c r="K15" s="193">
+      <c r="J15" s="190">
+        <v>0</v>
+      </c>
+      <c r="K15" s="192">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="221" t="s">
+      <c r="D17" s="242"/>
+      <c r="E17" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="194"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="219" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -4214,18 +4255,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="216"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="231"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="198"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="169"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -4241,16 +4282,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -4376,88 +4417,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="238"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
+      <c r="K30" s="222"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="238"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
-      <c r="K31" s="240"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="238"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="239"/>
-      <c r="G32" s="239"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="239"/>
-      <c r="K32" s="240"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="222"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="241"/>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="243"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="225"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="244" t="s">
+      <c r="A35" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="244"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="245">
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="227">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="245"/>
+      <c r="I35" s="227"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -4467,20 +4508,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="244" t="s">
+      <c r="A36" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="244"/>
-      <c r="C36" s="244"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="245">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="227">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="245"/>
+      <c r="I36" s="227"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -4502,14 +4543,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="232" t="s">
+      <c r="E38" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -4577,20 +4618,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -4607,28 +4646,30 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
-  <conditionalFormatting sqref="H36:I36 K15:K42">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+  <conditionalFormatting sqref="J15:J20 K15:K42 H35:I36">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I36 J15:J20 K15:K42">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="K15:K42 H36:I36">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
@@ -4699,9 +4740,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4716,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4741,87 +4782,87 @@
         <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="163"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="203"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4837,95 +4878,95 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176" t="s">
+      <c r="H14" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="179"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="219" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="220"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="188">
+      <c r="G15" s="243"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187">
         <v>0.2</v>
       </c>
-      <c r="K15" s="191"/>
-      <c r="L15" s="193">
+      <c r="K15" s="190"/>
+      <c r="L15" s="192">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="221" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="222"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="193"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="192"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="221" t="s">
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="222"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="194"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="193"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
-      <c r="F18" s="219" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="226"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4937,19 +4978,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="216"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="228"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="230" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="231"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -4963,17 +5004,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="202"/>
-      <c r="J20" s="203"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -4991,88 +5032,88 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235" t="s">
+      <c r="A23" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="236"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="236"/>
-      <c r="L23" s="237"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="219"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="238"/>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="239"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="240"/>
+      <c r="A24" s="220"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="221"/>
+      <c r="L24" s="222"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="238"/>
-      <c r="B25" s="239"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="239"/>
-      <c r="G25" s="239"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="239"/>
-      <c r="J25" s="239"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="240"/>
+      <c r="A25" s="220"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="221"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
+      <c r="J25" s="221"/>
+      <c r="K25" s="221"/>
+      <c r="L25" s="222"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="238"/>
-      <c r="B26" s="239"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="239"/>
-      <c r="G26" s="239"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="239"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="240"/>
+      <c r="A26" s="220"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="222"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="241"/>
-      <c r="B27" s="242"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="242"/>
-      <c r="K27" s="242"/>
-      <c r="L27" s="243"/>
+      <c r="A27" s="223"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="225"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="244" t="s">
+      <c r="A29" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="244"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
       <c r="I29" s="246"/>
       <c r="J29" s="246"/>
       <c r="K29" s="140" t="s">
@@ -5084,16 +5125,16 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="244" t="s">
+      <c r="A30" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="244"/>
-      <c r="C30" s="244"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
+      <c r="B30" s="226"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
       <c r="I30" s="246"/>
       <c r="J30" s="246"/>
       <c r="K30" s="42" t="s">
@@ -5105,16 +5146,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="244" t="s">
+      <c r="A31" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="244"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
       <c r="I31" s="246"/>
       <c r="J31" s="246"/>
       <c r="K31" s="42" t="s">
@@ -5126,16 +5167,16 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="244" t="s">
+      <c r="A32" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
       <c r="I32" s="246"/>
       <c r="J32" s="246"/>
       <c r="K32" s="42" t="s">
@@ -5147,21 +5188,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="244" t="s">
+      <c r="A33" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="244"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="245">
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="227">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="245"/>
+      <c r="J33" s="227"/>
       <c r="K33" s="42" t="s">
         <v>99</v>
       </c>
@@ -5183,14 +5224,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="232" t="s">
+      <c r="F35" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="234"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="216"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5281,18 +5322,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5309,36 +5358,28 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
-  <conditionalFormatting sqref="L15:L39 I33:J33">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+  <conditionalFormatting sqref="K15:K20 L15:L39 I29:J33">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K20 I29:J33 L15:L39">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="L15:L39 I33:J33">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
@@ -5406,8 +5447,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5422,9 +5463,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5446,83 +5487,83 @@
         <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -5552,11 +5593,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -5569,11 +5610,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="167"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="200"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -5586,11 +5627,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="167"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="200"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -5603,11 +5644,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -5620,11 +5661,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="167"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -5637,11 +5678,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="167"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="200"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -5730,91 +5771,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176" t="s">
+      <c r="G28" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="176"/>
+      <c r="I28" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="184" t="s">
+      <c r="D29" s="181"/>
+      <c r="E29" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="185"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188">
+      <c r="F29" s="184"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187">
         <v>0.2</v>
       </c>
-      <c r="J29" s="191"/>
-      <c r="K29" s="193">
+      <c r="J29" s="190"/>
+      <c r="K29" s="192">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="180"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="181"/>
+      <c r="C30" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="195" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="196"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="193"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="192"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="195" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="196"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="192"/>
-      <c r="K31" s="194"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="193"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179" t="s">
+      <c r="A32" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="204" t="s">
+      <c r="B32" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="198"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -5825,18 +5866,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="181"/>
-      <c r="B33" s="209" t="s">
+      <c r="A33" s="162"/>
+      <c r="B33" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="212" t="s">
+      <c r="C33" s="171"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="198"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -5850,16 +5891,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="201" t="s">
+      <c r="B34" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="202"/>
-      <c r="D34" s="202"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="202"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="202"/>
-      <c r="I34" s="203"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="55"/>
       <c r="K34" s="152">
         <f>J34</f>
@@ -5946,25 +5987,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -5980,24 +6010,35 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
-  <conditionalFormatting sqref="K29:K37">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+  <conditionalFormatting sqref="J29:J34 K29:K37">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J34 K29:K37">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="K29:K37">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
@@ -6068,8 +6109,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -6084,9 +6125,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6108,83 +6149,83 @@
         <v>68</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="163"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="163"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -6199,93 +6240,93 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="176" t="s">
+      <c r="G14" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="176"/>
+      <c r="I14" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="219" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188">
+      <c r="F15" s="243"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187">
         <v>0.2</v>
       </c>
-      <c r="J15" s="191">
-        <v>0</v>
-      </c>
-      <c r="K15" s="193">
+      <c r="J15" s="190">
+        <v>0</v>
+      </c>
+      <c r="K15" s="192">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="215"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217" t="s">
+      <c r="A16" s="240"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="241"/>
+      <c r="E16" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="193"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="192"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="216"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="218"/>
-      <c r="E17" s="221" t="s">
+      <c r="D17" s="242"/>
+      <c r="E17" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="222"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="194"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="223" t="s">
+      <c r="B18" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="219" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -6299,18 +6340,18 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="216"/>
-      <c r="B19" s="227" t="s">
+      <c r="A19" s="229"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="228"/>
-      <c r="D19" s="229"/>
-      <c r="E19" s="230" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="231"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="198"/>
+      <c r="F19" s="239"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="169"/>
       <c r="I19" s="46">
         <v>0.4</v>
       </c>
@@ -6326,16 +6367,16 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
       <c r="J20" s="47"/>
       <c r="K20" s="146">
         <v>0</v>
@@ -6461,88 +6502,88 @@
     </row>
     <row r="28" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="236"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="238"/>
-      <c r="B30" s="239"/>
-      <c r="C30" s="239"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="239"/>
-      <c r="J30" s="239"/>
-      <c r="K30" s="240"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
+      <c r="J30" s="221"/>
+      <c r="K30" s="222"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="238"/>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="239"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="239"/>
-      <c r="K31" s="240"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="238"/>
-      <c r="B32" s="239"/>
-      <c r="C32" s="239"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="239"/>
-      <c r="G32" s="239"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="239"/>
-      <c r="K32" s="240"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="222"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="241"/>
-      <c r="B33" s="242"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="243"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="225"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="244" t="s">
+      <c r="A35" s="226" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="244"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="245">
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="227">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="245"/>
+      <c r="I35" s="227"/>
       <c r="J35" s="33" t="s">
         <v>46</v>
       </c>
@@ -6552,20 +6593,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="244" t="s">
+      <c r="A36" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="244"/>
-      <c r="C36" s="244"/>
-      <c r="D36" s="244"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="245">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="227">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="245"/>
+      <c r="I36" s="227"/>
       <c r="J36" s="52" t="s">
         <v>62</v>
       </c>
@@ -6587,14 +6628,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E38" s="232" t="s">
+      <c r="E38" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="234"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="216"/>
       <c r="K38" s="53">
         <f>K37/4</f>
         <v>0</v>
@@ -6662,20 +6703,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -6692,28 +6731,30 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
-  <conditionalFormatting sqref="H36:I36 K15:K42">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="J15:J20 K15:K42 H35:I36">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I36 J15:J20 K15:K42">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="notBetween">
+  <conditionalFormatting sqref="K15:K42 H36:I36">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
@@ -6735,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -6784,9 +6825,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="248"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6801,10 +6842,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6818,10 +6859,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6844,30 +6885,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7014,96 +7055,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="250"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="176" t="s">
+      <c r="G23" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="188">
+      <c r="F24" s="256"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="187">
         <v>0.2</v>
       </c>
-      <c r="K24" s="191"/>
-      <c r="L24" s="194">
+      <c r="K24" s="190"/>
+      <c r="L24" s="193">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="180"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182" t="s">
+      <c r="B25" s="181"/>
+      <c r="C25" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="195" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="256"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="260"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183" t="s">
+      <c r="A26" s="162"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="195" t="s">
+      <c r="D26" s="182"/>
+      <c r="E26" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="257"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="261"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7115,19 +7156,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="181"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="162"/>
+      <c r="B28" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="212" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="213"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="260"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="252"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7141,16 +7182,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="201" t="s">
+      <c r="B29" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="203"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7241,14 +7282,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7265,22 +7304,24 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
-  <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="L24 K24:K29 L27:L28 J29 L30:L32">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24 L27:L28 J29 K24:K29 L30:L32">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notBetween">
+  <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7347,9 +7388,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7364,10 +7405,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7381,10 +7422,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7413,30 +7454,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,93 +7492,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="176" t="s">
+      <c r="G13" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="176"/>
+      <c r="I13" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="217"/>
-      <c r="E14" s="219" t="s">
+      <c r="D14" s="241"/>
+      <c r="E14" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188">
+      <c r="F14" s="243"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="187">
         <v>0.2</v>
       </c>
-      <c r="J14" s="191">
-        <v>0</v>
-      </c>
-      <c r="K14" s="193">
+      <c r="J14" s="190">
+        <v>0</v>
+      </c>
+      <c r="K14" s="192">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="215"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217" t="s">
+      <c r="A15" s="240"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="221" t="s">
+      <c r="D15" s="241"/>
+      <c r="E15" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="193"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="216"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218" t="s">
+      <c r="A16" s="229"/>
+      <c r="B16" s="242"/>
+      <c r="C16" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="221" t="s">
+      <c r="D16" s="242"/>
+      <c r="E16" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="222"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="194"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="223" t="s">
+      <c r="B17" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="224"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="219" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="226"/>
-      <c r="G17" s="197"/>
-      <c r="H17" s="198"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7551,18 +7592,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="216"/>
-      <c r="B18" s="227" t="s">
+      <c r="A18" s="229"/>
+      <c r="B18" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="228"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="230" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="231"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7578,16 +7619,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7673,88 +7714,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="239"/>
-      <c r="C27" s="239"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="239"/>
-      <c r="G27" s="239"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="239"/>
-      <c r="J27" s="239"/>
-      <c r="K27" s="240"/>
+      <c r="A27" s="220"/>
+      <c r="B27" s="221"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="221"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="221"/>
+      <c r="J27" s="221"/>
+      <c r="K27" s="222"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="238"/>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="239"/>
-      <c r="K28" s="240"/>
+      <c r="A28" s="220"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="222"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="238"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="239"/>
-      <c r="I29" s="239"/>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
+      <c r="A29" s="220"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="222"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="241"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="243"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="225"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="244" t="s">
+      <c r="A32" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="266">
+      <c r="B32" s="226"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="264">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="264"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7764,20 +7805,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="244" t="s">
+      <c r="A33" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="244"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245">
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="227">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="267"/>
+      <c r="I33" s="265"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7799,14 +7840,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="232" t="s">
+      <c r="E35" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="234"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="216"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7861,20 +7902,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7891,12 +7924,20 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="K19">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -7966,9 +8007,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
-      <c r="E4" s="248"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -7983,10 +8024,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8000,10 +8041,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8026,30 +8067,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8196,96 +8237,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="250"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="176" t="s">
+      <c r="G23" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="181"/>
+      <c r="E24" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="188">
+      <c r="F24" s="256"/>
+      <c r="G24" s="257"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="187">
         <v>0.2</v>
       </c>
       <c r="K24" s="268"/>
-      <c r="L24" s="194">
+      <c r="L24" s="193">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="180"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182" t="s">
+      <c r="B25" s="181"/>
+      <c r="C25" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="195" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="260"/>
-      <c r="J25" s="189"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="188"/>
       <c r="K25" s="268"/>
-      <c r="L25" s="256"/>
+      <c r="L25" s="260"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="183" t="s">
+      <c r="A26" s="162"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="195" t="s">
+      <c r="D26" s="182"/>
+      <c r="E26" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="190"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="189"/>
       <c r="K26" s="269"/>
-      <c r="L26" s="257"/>
+      <c r="L26" s="261"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207" t="s">
+      <c r="C27" s="164"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8297,19 +8338,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="181"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="162"/>
+      <c r="B28" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
-      <c r="E28" s="212" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="213"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="259"/>
-      <c r="I28" s="260"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="252"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8323,16 +8364,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="201" t="s">
+      <c r="B29" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="202"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="202"/>
-      <c r="I29" s="203"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8423,6 +8464,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8436,33 +8494,16 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
-  <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="L24 K24:K29 L27:L28 J29 L30:L32">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notBetween">
       <formula>0</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24 L27:L28 J29 K24:K29 L30:L32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notBetween">
+  <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
